--- a/src/testData/archivosExcel/ParcelDeclareRequest_v2.xlsx
+++ b/src/testData/archivosExcel/ParcelDeclareRequest_v2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="532">
   <si>
     <t>idTestCase</t>
   </si>
@@ -311,24 +311,6 @@
     <t>P3</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561235</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC124</t>
-  </si>
-  <si>
-    <t>AWBN056835989</t>
-  </si>
-  <si>
-    <t>Tab P13</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P13</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -374,7 +356,7 @@
     <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"countryManufacture","message":"countryManufacture es obligatorio"}]</t>
   </si>
   <si>
-    <t>P5</t>
+    <t>P4</t>
   </si>
   <si>
     <r>
@@ -387,10 +369,10 @@
     </r>
   </si>
   <si>
-    <t>[{"field": "currency","message": "currency es obligatorio"}]</t>
-  </si>
-  <si>
-    <t>P6</t>
+    <t>[{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"currency","message":"currency es obligatorio"}]</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
   <si>
     <r>
@@ -403,10 +385,10 @@
     </r>
   </si>
   <si>
-    <t>[{"field": "grossWeight","message": "grossWeight es obligatorio"}]</t>
-  </si>
-  <si>
-    <t>P7</t>
+    <t>[{"field":"grossWeight","message":"grossWeight es obligatorio"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+  </si>
+  <si>
+    <t>P6</t>
   </si>
   <si>
     <t>PE1</t>
@@ -425,6 +407,9 @@
     <t>35.6</t>
   </si>
   <si>
+    <t>AWBN056835989</t>
+  </si>
+  <si>
     <t>90 Nanshan Ave, Shenzhen</t>
   </si>
   <si>
@@ -457,7 +442,7 @@
     <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"}]</t>
   </si>
   <si>
-    <t>P8</t>
+    <t>P7</t>
   </si>
   <si>
     <t>pe</t>
@@ -508,7 +493,7 @@
     </r>
   </si>
   <si>
-    <t>P9</t>
+    <t>P8</t>
   </si>
   <si>
     <t>CHLOG-98XZ561234CHLOG-98XZ561234CHLOG-98XZ561234</t>
@@ -562,7 +547,7 @@
     <t>[{"field":"logisticsCode","message":"logisticsCode: máximo 32 caracteres"}]</t>
   </si>
   <si>
-    <t>P10</t>
+    <t>P9</t>
   </si>
   <si>
     <r>
@@ -613,7 +598,7 @@
     <t>[{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"}]</t>
   </si>
   <si>
-    <t>P11</t>
+    <t>P10</t>
   </si>
   <si>
     <t>82343522.122</t>
@@ -664,7 +649,10 @@
     <t>[{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
   </si>
   <si>
-    <t>P12</t>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561235</t>
   </si>
   <si>
     <t>84.1234</t>
@@ -700,7 +688,7 @@
     </r>
   </si>
   <si>
-    <t>P13</t>
+    <t>P12</t>
   </si>
   <si>
     <r>
@@ -751,7 +739,7 @@
     <t>[{"field":"purchaseWebsite","message":"purchaseWebsite debe iniciar con http:// o https://"}]</t>
   </si>
   <si>
-    <t>P14</t>
+    <t>P13</t>
   </si>
   <si>
     <t>PE</t>
@@ -805,7 +793,7 @@
     <t>[{"field": "valueAddedTax","message": "valueAddedTax inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
   </si>
   <si>
-    <t>P15</t>
+    <t>P14</t>
   </si>
   <si>
     <r>
@@ -841,7 +829,7 @@
     </r>
   </si>
   <si>
-    <t>P16</t>
+    <t>P15</t>
   </si>
   <si>
     <r>
@@ -889,10 +877,10 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"shipping","message":"shipping inválido (máx 8 enteros y 3 decimales, separador '.')"}]</t>
-  </si>
-  <si>
-    <t>P17</t>
+    <t>[{"field":"shipping","message":"shipping inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+  </si>
+  <si>
+    <t>P16</t>
   </si>
   <si>
     <t>cinco</t>
@@ -946,7 +934,7 @@
     <t>[{"field":"packageCount","message":"packageCount inválido (solo dígitos)"}]</t>
   </si>
   <si>
-    <t>P18</t>
+    <t>P17</t>
   </si>
   <si>
     <r>
@@ -979,7 +967,7 @@
     </r>
   </si>
   <si>
-    <t>P19</t>
+    <t>P18</t>
   </si>
   <si>
     <r>
@@ -1027,7 +1015,7 @@
     <t>[{"field":"receiverInfo.idUbigeo","message":"must not be blank"},{"field":"receiverInfo.email","message":"must not be blank"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.identityNumber","message":"must not be blank"},{"field":"receiverInfo.address","message":"No debe estar vacío"},{"field":"receiverInfo.fullName","message":"must not be blank"},{"field":"receiverInfo.mobilePhone","message":"must not be blank"}]</t>
   </si>
   <si>
-    <t>P20</t>
+    <t>P19</t>
   </si>
   <si>
     <r>
@@ -1043,7 +1031,7 @@
     <t>[{"field": "receiverInfo.fullName","message": "must not be blank"}]</t>
   </si>
   <si>
-    <t>P21</t>
+    <t>P20</t>
   </si>
   <si>
     <r>
@@ -1094,7 +1082,7 @@
     <t>[{"field":"receiverInfo.email","message":"size must be between 0 and 64"},{"field":"receiverInfo.email","message":"must be a well-formed email address"}]</t>
   </si>
   <si>
-    <t>P22</t>
+    <t>P21</t>
   </si>
   <si>
     <r>
@@ -1145,7 +1133,7 @@
     <t>[{"field":"receiverInfo.mobilePhone","message":"size must be between 0 and 16"}]</t>
   </si>
   <si>
-    <t>P23</t>
+    <t>P22</t>
   </si>
   <si>
     <r>
@@ -1187,7 +1175,7 @@
     <t>[{"field":"receiverInfo.identityNumber","message":"size must be between 0 and 32"}]</t>
   </si>
   <si>
-    <t>P24</t>
+    <t>P23</t>
   </si>
   <si>
     <r>
@@ -1226,7 +1214,7 @@
     <t>[{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber es obligatorio"}]</t>
   </si>
   <si>
-    <t>P25</t>
+    <t>P24</t>
   </si>
   <si>
     <r>
@@ -1239,10 +1227,10 @@
     </r>
   </si>
   <si>
-    <t>[{"field": "itemList","message": "must not be null"}]</t>
-  </si>
-  <si>
-    <t>P26</t>
+    <t>[{"field":"itemList[1].brand","message":"brand es obligatorio"},{"field":"itemList[0].brand","message":"brand es obligatorio"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency es obligatorio"},{"field":"itemList[0].currency","message":"currency es obligatorio"},{"field":"itemList[1].descriptionGoods","message":"descriptionGoods es obligatorio"},{"field":"itemList[0].descriptionGoods","message":"descriptionGoods es obligatorio"},{"field":"itemList[1].grossWeight","message":"grossWeight es obligatorio"},{"field":"itemList[0].grossWeight","message":"grossWeight es obligatorio"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber es obligatorio"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber es obligatorio"},{"field":"itemList[1].model","message":"model es obligatorio"},{"field":"itemList[0].model","message":"model es obligatorio"},{"field":"itemList[1].price","message":"price es obligatorio"},{"field":"itemList[0].price","message":"price es obligatorio"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[1].productUrl","message":"productUrl es obligatorio"},{"field":"itemList[0].productUrl","message":"productUrl es obligatorio"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].qty","message":"qty es obligatorio"},{"field":"itemList[0].qty","message":"qty es obligatorio"}]</t>
+  </si>
+  <si>
+    <t>P25</t>
   </si>
   <si>
     <r>
@@ -1255,148 +1243,151 @@
     </r>
   </si>
   <si>
-    <t>[{"field": "itemList[0].price","message": "price es obligatorio"}]</t>
+    <t>[{"field":"itemList[0].price","message":"price es obligatorio"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561236</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC125</t>
+  </si>
+  <si>
+    <t>AWBN056836004</t>
+  </si>
+  <si>
+    <t>R87654323</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Tab P13</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P13</t>
+  </si>
+  <si>
+    <t>PowerCore 20002</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20002</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"}]</t>
   </si>
   <si>
     <t>P27</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561236</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC125</t>
-  </si>
-  <si>
-    <t>AWBN056836004</t>
-  </si>
-  <si>
-    <t>R87654323</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>PowerCore 20002</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20002</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"}]</t>
+    <t>CHLOG-98XZ561237</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC126</t>
+  </si>
+  <si>
+    <t>AWBN056836005</t>
+  </si>
+  <si>
+    <t>R87654324</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>Tab P14</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P14</t>
+  </si>
+  <si>
+    <t>PowerCore 20003</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20003</t>
   </si>
   <si>
     <t>P28</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561237</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC126</t>
-  </si>
-  <si>
-    <t>AWBN056836005</t>
-  </si>
-  <si>
-    <t>R87654324</t>
-  </si>
-  <si>
-    <t>uno</t>
-  </si>
-  <si>
-    <t>Tab P14</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P14</t>
-  </si>
-  <si>
-    <t>PowerCore 20003</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20003</t>
-  </si>
-  <si>
-    <t>[{"field": "itemList[0].itemSequenceNumber","message": "itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field": "packageCount","message": "packageCount inválido (solo dígitos)"}]</t>
+    <t>0112345678.101101</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price: máximo 16 caracteres"}]</t>
   </si>
   <si>
     <t>P29</t>
   </si>
   <si>
-    <t>0112345.101101</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].price","message":"price inválido (máx 8 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price: máximo 16 caracteres"}]</t>
+    <t>-180.35</t>
+  </si>
+  <si>
+    <t>[{"field": "itemList[0].price","message": "price inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
   </si>
   <si>
     <t>P30</t>
   </si>
   <si>
-    <t>-180.35</t>
-  </si>
-  <si>
-    <t>[{"field": "itemList[0].price","message": "price inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+    <t>CHLOG-98XZ561238</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC127</t>
+  </si>
+  <si>
+    <t>AWBN056836006</t>
+  </si>
+  <si>
+    <t>R87654325</t>
+  </si>
+  <si>
+    <t>Tab P15</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P15</t>
+  </si>
+  <si>
+    <t>PowerCore 20004</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20004</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"}]</t>
   </si>
   <si>
     <t>P31</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561238</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC127</t>
-  </si>
-  <si>
-    <t>AWBN056836006</t>
-  </si>
-  <si>
-    <t>R87654325</t>
-  </si>
-  <si>
-    <t>Tab P15</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P15</t>
-  </si>
-  <si>
-    <t>PowerCore 20004</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20004</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"}]</t>
+    <t>CHLOG-98XZ561239</t>
+  </si>
+  <si>
+    <t>17.24354</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC128</t>
+  </si>
+  <si>
+    <t>AWBN056836007</t>
+  </si>
+  <si>
+    <t>R87654326</t>
+  </si>
+  <si>
+    <t>Tab P16</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P16</t>
+  </si>
+  <si>
+    <t>PowerCore 20005</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20005</t>
   </si>
   <si>
     <t>P32</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561239</t>
-  </si>
-  <si>
-    <t>17.24354</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC128</t>
-  </si>
-  <si>
-    <t>AWBN056836007</t>
-  </si>
-  <si>
-    <t>R87654326</t>
-  </si>
-  <si>
-    <t>Tab P16</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P16</t>
-  </si>
-  <si>
-    <t>PowerCore 20005</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20005</t>
-  </si>
-  <si>
-    <t>P33</t>
   </si>
   <si>
     <t>CHLOG-98XZ561234CHLOG-98XZ561234</t>
@@ -1412,85 +1403,88 @@
     </r>
   </si>
   <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561234CHLOG-98XZ5612356</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC124</t>
+  </si>
+  <si>
+    <t>[{"field": "logisticsCode","message": "logisticsCode: máximo 32 caracteres"}]</t>
+  </si>
+  <si>
     <t>P34</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561234CHLOG-98XZ5612356</t>
-  </si>
-  <si>
-    <t>[{"field": "logisticsCode","message": "logisticsCode: máximo 32 caracteres"}]</t>
+    <t>https://shop.example.cn/product/ABC123https/m/shop.example.cn/product/ABC123https/m/shop.example.cn/product</t>
   </si>
   <si>
     <t>P35</t>
   </si>
   <si>
-    <t>https://shop.example.cn/product/ABC123https://shop.example.cn/product/ABC123https://shop.example.cn/product/ABC123https://shop.e</t>
+    <t>CHLOG-98XZ561240</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC123https/m/shop.example.cn/product/ABC123https/m/shop.example.cn/product/xyz789extra12345</t>
+  </si>
+  <si>
+    <t>AWBN056836008</t>
+  </si>
+  <si>
+    <t>R87654327</t>
+  </si>
+  <si>
+    <t>Tab P17</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P17</t>
+  </si>
+  <si>
+    <t>PowerCore 20006</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20006</t>
+  </si>
+  <si>
+    <t>[{"field":"purchaseWebsite","message":"purchaseWebsite: máximo 120 caracteres"}]</t>
   </si>
   <si>
     <t>P36</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561240</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC129https://shop.example.cn/product/ABC129https://shop.example.cn/product/ABC129https://shop.example.cn/product/ABC129</t>
-  </si>
-  <si>
-    <t>AWBN056836008</t>
-  </si>
-  <si>
-    <t>R87654327</t>
-  </si>
-  <si>
-    <t>Tab P17</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P17</t>
-  </si>
-  <si>
-    <t>PowerCore 20006</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20006</t>
-  </si>
-  <si>
-    <t>[{"field":"purchaseWebsite","message":"purchaseWebsite: máximo 128 caracteres"}]</t>
+    <t>CHLOG-98XZ561241</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC130</t>
+  </si>
+  <si>
+    <t>123412341234123412341234123412341234</t>
+  </si>
+  <si>
+    <t>AWBN056836009</t>
+  </si>
+  <si>
+    <t>R87654328</t>
+  </si>
+  <si>
+    <t>Tab P18</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P18</t>
+  </si>
+  <si>
+    <t>PowerCore 20007</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20007</t>
+  </si>
+  <si>
+    <t>[{"field":"invoiceNumber","message":"invoiceNumber: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>P37</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561241</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC130</t>
-  </si>
-  <si>
-    <t>123412341234123412341234123412341234</t>
-  </si>
-  <si>
-    <t>AWBN056836009</t>
-  </si>
-  <si>
-    <t>R87654328</t>
-  </si>
-  <si>
-    <t>Tab P18</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P18</t>
-  </si>
-  <si>
-    <t>PowerCore 20007</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20007</t>
-  </si>
-  <si>
-    <t>[{"field":"invoiceNumber","message":"invoiceNumber: máximo 32 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P38</t>
   </si>
   <si>
     <r>
@@ -1503,47 +1497,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">12341234123412341234123412341234123412341hdsqjfkdkksssssssdsrretr
-</t>
+    <t>12341234123412341234hdsqjfkdkkssssss</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561242</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC131</t>
+  </si>
+  <si>
+    <t>12341234123412341234123412341234123412341hdsqjfkdkksssssssdsrretr234123412341234123</t>
+  </si>
+  <si>
+    <t>AWBN056836010</t>
+  </si>
+  <si>
+    <t>CN17</t>
+  </si>
+  <si>
+    <t>R87654329</t>
+  </si>
+  <si>
+    <t>Tab P19</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P19</t>
+  </si>
+  <si>
+    <t>PowerCore 20008</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20008</t>
+  </si>
+  <si>
+    <t>[{"field":"ctnNumber","message":"size must be between 0 and 32"}]</t>
   </si>
   <si>
     <t>P39</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561242</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC131</t>
-  </si>
-  <si>
-    <t>12341234123412341234123412341234123412341hdsqjfkdkksssssssdsrretr234123412341234123</t>
-  </si>
-  <si>
-    <t>AWBN056836010</t>
-  </si>
-  <si>
-    <t>CN17</t>
-  </si>
-  <si>
-    <t>R87654329</t>
-  </si>
-  <si>
-    <t>Tab P19</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P19</t>
-  </si>
-  <si>
-    <t>PowerCore 20008</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20008</t>
-  </si>
-  <si>
-    <t>[{"field":"ctnNumber","message":"ctnNumber máximo 64 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P40</t>
   </si>
   <si>
     <r>
@@ -1559,43 +1552,43 @@
     <t>260526052605hola</t>
   </si>
   <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561243</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC132</t>
+  </si>
+  <si>
+    <t>AWBN056836011</t>
+  </si>
+  <si>
+    <t>260526052605hola13</t>
+  </si>
+  <si>
+    <t>CN18</t>
+  </si>
+  <si>
+    <t>R87654330</t>
+  </si>
+  <si>
+    <t>Tab P20</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P20</t>
+  </si>
+  <si>
+    <t>PowerCore 20009</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20009</t>
+  </si>
+  <si>
+    <t>[{"field":"insurance","message":"size must be between 0 and 16"}]</t>
+  </si>
+  <si>
     <t>P41</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561243</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC132</t>
-  </si>
-  <si>
-    <t>AWBN056836011</t>
-  </si>
-  <si>
-    <t>260526052605hola13</t>
-  </si>
-  <si>
-    <t>CN18</t>
-  </si>
-  <si>
-    <t>R87654330</t>
-  </si>
-  <si>
-    <t>Tab P20</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P20</t>
-  </si>
-  <si>
-    <t>PowerCore 20009</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20009</t>
-  </si>
-  <si>
-    <t>[{"field":"insurance","message":"size must be between 0 and 16"}]</t>
-  </si>
-  <si>
-    <t>P42</t>
   </si>
   <si>
     <r>
@@ -1611,43 +1604,43 @@
     <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los</t>
   </si>
   <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561244</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC133</t>
+  </si>
+  <si>
+    <t>AWBN056836012</t>
+  </si>
+  <si>
+    <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, Surco</t>
+  </si>
+  <si>
+    <t>CN19</t>
+  </si>
+  <si>
+    <t>R87654331</t>
+  </si>
+  <si>
+    <t>Tab P21</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P21</t>
+  </si>
+  <si>
+    <t>PowerCore 20010</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20010</t>
+  </si>
+  <si>
+    <t>[{"field":"receiverInfo.address","message":"size must be between 0 and 200"}]</t>
+  </si>
+  <si>
     <t>P43</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561244</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC133</t>
-  </si>
-  <si>
-    <t>AWBN056836012</t>
-  </si>
-  <si>
-    <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, Surco</t>
-  </si>
-  <si>
-    <t>CN19</t>
-  </si>
-  <si>
-    <t>R87654331</t>
-  </si>
-  <si>
-    <t>Tab P21</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P21</t>
-  </si>
-  <si>
-    <t>PowerCore 20010</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20010</t>
-  </si>
-  <si>
-    <t>[{"field":"receiverInfo.address","message":"size must be between 0 and 200"}]</t>
-  </si>
-  <si>
-    <t>P44</t>
   </si>
   <si>
     <r>
@@ -1663,43 +1656,43 @@
     <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alesss Besada</t>
   </si>
   <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561245</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC134</t>
+  </si>
+  <si>
+    <t>AWBN056836013</t>
+  </si>
+  <si>
+    <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites Besada</t>
+  </si>
+  <si>
+    <t>CN20</t>
+  </si>
+  <si>
+    <t>R87654332</t>
+  </si>
+  <si>
+    <t>Tab P22</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P22</t>
+  </si>
+  <si>
+    <t>PowerCore 20011</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20011</t>
+  </si>
+  <si>
+    <t>[{"field":"receiverInfo.fullName","message":"size must be between 0 and 100"}]</t>
+  </si>
+  <si>
     <t>P45</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561245</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC134</t>
-  </si>
-  <si>
-    <t>AWBN056836013</t>
-  </si>
-  <si>
-    <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites Besada</t>
-  </si>
-  <si>
-    <t>CN20</t>
-  </si>
-  <si>
-    <t>R87654332</t>
-  </si>
-  <si>
-    <t>Tab P22</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P22</t>
-  </si>
-  <si>
-    <t>PowerCore 20011</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20011</t>
-  </si>
-  <si>
-    <t>[{"field":"receiverInfo.fullName","message":"size must be between 0 and 100"}]</t>
-  </si>
-  <si>
-    <t>P46</t>
   </si>
   <si>
     <r>
@@ -1715,6 +1708,42 @@
     <t>9876543211234567</t>
   </si>
   <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561246</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC135</t>
+  </si>
+  <si>
+    <t>AWBN056836014</t>
+  </si>
+  <si>
+    <t>43fdsfdsgfd1___2</t>
+  </si>
+  <si>
+    <t>CN21</t>
+  </si>
+  <si>
+    <t>R87654333</t>
+  </si>
+  <si>
+    <t>Tab P23</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P23</t>
+  </si>
+  <si>
+    <t>PowerCore 20012</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20012</t>
+  </si>
+  <si>
+    <t>[{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"}]</t>
+  </si>
+  <si>
     <t>P47</t>
   </si>
   <si>
@@ -1728,46 +1757,43 @@
     </r>
   </si>
   <si>
-    <t>98765432112345671</t>
-  </si>
-  <si>
-    <t>[{"field": "receiverInfo.mobilePhone","message": "size must be between 0 and 16"}]</t>
+    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA</t>
   </si>
   <si>
     <t>P48</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561246</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC135</t>
-  </si>
-  <si>
-    <t>AWBN056836014</t>
-  </si>
-  <si>
-    <t>43fdsfdsgfd1___2</t>
-  </si>
-  <si>
-    <t>CN21</t>
-  </si>
-  <si>
-    <t>R87654333</t>
-  </si>
-  <si>
-    <t>Tab P23</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P23</t>
-  </si>
-  <si>
-    <t>PowerCore 20012</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20012</t>
-  </si>
-  <si>
-    <t>[{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"}]</t>
+    <t>CHLOG-98XZ561247</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC136</t>
+  </si>
+  <si>
+    <t>AWBN056836015</t>
+  </si>
+  <si>
+    <t>CN22</t>
+  </si>
+  <si>
+    <t>R87654334</t>
+  </si>
+  <si>
+    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLA</t>
+  </si>
+  <si>
+    <t>Tab P24</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P24</t>
+  </si>
+  <si>
+    <t>PowerCore 20013</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20013</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].descriptionGoods","message":"descriptionGoods: máximo 128 caracteres"}]</t>
   </si>
   <si>
     <t>P49</t>
@@ -1783,43 +1809,43 @@
     </r>
   </si>
   <si>
-    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA</t>
+    <t>LenovoLenovoLenovoLenovoLenovo32</t>
   </si>
   <si>
     <t>P50</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561247</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC136</t>
-  </si>
-  <si>
-    <t>AWBN056836015</t>
-  </si>
-  <si>
-    <t>CN22</t>
-  </si>
-  <si>
-    <t>R87654334</t>
-  </si>
-  <si>
-    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLA</t>
-  </si>
-  <si>
-    <t>Tab P24</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P24</t>
-  </si>
-  <si>
-    <t>PowerCore 20013</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20013</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].descriptionGoods","message":"descriptionGoods: máximo 128 caracteres"}]</t>
+    <t>CHLOG-98XZ561248</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC137</t>
+  </si>
+  <si>
+    <t>AWBN056836016</t>
+  </si>
+  <si>
+    <t>CN23</t>
+  </si>
+  <si>
+    <t>R87654335</t>
+  </si>
+  <si>
+    <t>LenovoLenovoLenovoLenovoLenovoLenovo</t>
+  </si>
+  <si>
+    <t>Tab P25</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P25</t>
+  </si>
+  <si>
+    <t>PowerCore 20014</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20014</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].brand","message":"brand: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>P51</t>
@@ -1835,46 +1861,40 @@
     </r>
   </si>
   <si>
-    <t>LenovoLenovoLenovoLenovoLenovo32</t>
-  </si>
-  <si>
-    <t>[{"field": "itemList[0].brand","message": "brand: máximo 32 caracteres"}]</t>
+    <t>Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fan</t>
   </si>
   <si>
     <t>P52</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561248</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC137</t>
-  </si>
-  <si>
-    <t>AWBN056836016</t>
-  </si>
-  <si>
-    <t>CN23</t>
-  </si>
-  <si>
-    <t>R87654335</t>
-  </si>
-  <si>
-    <t>LenovoLenovoLenovoLenovoLenovoLenovo</t>
-  </si>
-  <si>
-    <t>Tab P25</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P25</t>
-  </si>
-  <si>
-    <t>PowerCore 20014</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20014</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].brand","message":"brand: máximo 32 caracteres"}]</t>
+    <t>CHLOG-98XZ561249</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC138</t>
+  </si>
+  <si>
+    <t>AWBN056836017</t>
+  </si>
+  <si>
+    <t>CN24</t>
+  </si>
+  <si>
+    <t>R87654336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu </t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P26</t>
+  </si>
+  <si>
+    <t>PowerCore 20015</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20015</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].model","message":"model: máximo 128 caracteres"}]</t>
   </si>
   <si>
     <t>P53</t>
@@ -1890,233 +1910,188 @@
     </r>
   </si>
   <si>
-    <t>Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fan</t>
+    <t xml:space="preserve">https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P2
+</t>
   </si>
   <si>
     <t>P54</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561249</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC138</t>
-  </si>
-  <si>
-    <t>AWBN056836017</t>
-  </si>
-  <si>
-    <t>CN24</t>
-  </si>
-  <si>
-    <t>R87654336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu </t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P26</t>
-  </si>
-  <si>
-    <t>PowerCore 20015</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20015</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].model","message":"model: máximo 128 caracteres"}]</t>
+    <t>CHLOG-98XZ561250</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC139</t>
+  </si>
+  <si>
+    <t>AWBN056836018</t>
+  </si>
+  <si>
+    <t>CN25</t>
+  </si>
+  <si>
+    <t>R87654337</t>
+  </si>
+  <si>
+    <t>Tab P27</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27</t>
+  </si>
+  <si>
+    <t>PowerCore 20016</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20016</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"}]</t>
   </si>
   <si>
     <t>P55</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://shop.example.cn/product/ABC123</t>
-    </r>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/i</t>
+    <t>CH&amp;</t>
+  </si>
+  <si>
+    <t>CHLOG-9&amp;8XZ561250</t>
+  </si>
+  <si>
+    <t>U&amp;SD</t>
+  </si>
+  <si>
+    <t>18.1&amp;20</t>
+  </si>
+  <si>
+    <t>5&amp;</t>
+  </si>
+  <si>
+    <t>https://shop.exampl&amp;e.cn/product/ABC139</t>
+  </si>
+  <si>
+    <t>35&amp;,5</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>26&amp;05</t>
+  </si>
+  <si>
+    <t>AWBN056&amp;836018</t>
+  </si>
+  <si>
+    <t>Jr. Los Pin&amp;os 451, Surco</t>
+  </si>
+  <si>
+    <t>recep@ejem&amp;plo.pe</t>
+  </si>
+  <si>
+    <t>Marí&amp;v&amp;a López</t>
+  </si>
+  <si>
+    <t>98765&amp;4321</t>
+  </si>
+  <si>
+    <t>1&amp;502</t>
+  </si>
+  <si>
+    <t>1&amp;5067</t>
+  </si>
+  <si>
+    <t>4455&amp;6678</t>
+  </si>
+  <si>
+    <t>94 Nansh&amp;an Ave, Shenzhen</t>
+  </si>
+  <si>
+    <t>warehouse@&amp;&amp;export.cn</t>
+  </si>
+  <si>
+    <t>Chen Li&amp;&amp;</t>
+  </si>
+  <si>
+    <t>136000&amp;&amp;00000</t>
+  </si>
+  <si>
+    <t>CN&amp;&amp;09</t>
+  </si>
+  <si>
+    <t>51&amp;&amp;8054</t>
+  </si>
+  <si>
+    <t>E1234&amp;&amp;5684</t>
+  </si>
+  <si>
+    <t>No. 12, Chaoy&amp;&amp;ang Rd, Beijing</t>
+  </si>
+  <si>
+    <t>returns@ex&amp;port.cn</t>
+  </si>
+  <si>
+    <t>Wang&amp;&amp; Yu</t>
+  </si>
+  <si>
+    <t>139888&amp;&amp;87777</t>
+  </si>
+  <si>
+    <t>CN&amp;&amp;25</t>
+  </si>
+  <si>
+    <t>10&amp;0101</t>
+  </si>
+  <si>
+    <t>R87654&amp;&amp;337</t>
+  </si>
+  <si>
+    <t>USD&amp;&amp;</t>
+  </si>
+  <si>
+    <t>1&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Tablet Android 10.1 inch&amp;&amp;</t>
+  </si>
+  <si>
+    <t>180&amp;</t>
+  </si>
+  <si>
+    <t>3&amp;</t>
+  </si>
+  <si>
+    <t>620&amp;</t>
+  </si>
+  <si>
+    <t>Lenovo&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Tab P27&amp;&amp;</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>2&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Portable Power Ban&amp;&amp;k 20000mAh</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>PowerCor&amp;&amp;&amp;e 20016</t>
+  </si>
+  <si>
+    <t>https://shop.&amp;&amp;&amp;&amp;example.cn/item/ANK-20016</t>
+  </si>
+  <si>
+    <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[0].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"packageCount","message":"packageCount inválido (solo dígitos)"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"shipping","message":"shipping inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"},{"field":"valueAddedTax","message":"valueAddedTax inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
   </si>
   <si>
     <t>P56</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561250</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC139</t>
-  </si>
-  <si>
-    <t>AWBN056836018</t>
-  </si>
-  <si>
-    <t>CN25</t>
-  </si>
-  <si>
-    <t>R87654337</t>
-  </si>
-  <si>
-    <t>Tab P27</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27</t>
-  </si>
-  <si>
-    <t>PowerCore 20016</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20016</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P57</t>
-  </si>
-  <si>
-    <t>CH&amp;</t>
-  </si>
-  <si>
-    <t>CHLOG-9&amp;8XZ561250</t>
-  </si>
-  <si>
-    <t>U&amp;SD</t>
-  </si>
-  <si>
-    <t>18.1&amp;20</t>
-  </si>
-  <si>
-    <t>5&amp;</t>
-  </si>
-  <si>
-    <t>https://shop.exampl&amp;e.cn/product/ABC139</t>
-  </si>
-  <si>
-    <t>35&amp;,5</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>26&amp;05</t>
-  </si>
-  <si>
-    <t>AWBN056&amp;836018</t>
-  </si>
-  <si>
-    <t>Jr. Los Pin&amp;os 451, Surco</t>
-  </si>
-  <si>
-    <t>recep@ejem&amp;plo.pe</t>
-  </si>
-  <si>
-    <t>Marí&amp;v&amp;a López</t>
-  </si>
-  <si>
-    <t>98765&amp;4321</t>
-  </si>
-  <si>
-    <t>1&amp;502</t>
-  </si>
-  <si>
-    <t>1&amp;5067</t>
-  </si>
-  <si>
-    <t>4455&amp;6678</t>
-  </si>
-  <si>
-    <t>94 Nansh&amp;an Ave, Shenzhen</t>
-  </si>
-  <si>
-    <t>warehouse@&amp;&amp;export.cn</t>
-  </si>
-  <si>
-    <t>Chen Li&amp;&amp;</t>
-  </si>
-  <si>
-    <t>136000&amp;&amp;00000</t>
-  </si>
-  <si>
-    <t>CN&amp;&amp;09</t>
-  </si>
-  <si>
-    <t>51&amp;&amp;8054</t>
-  </si>
-  <si>
-    <t>E1234&amp;&amp;5684</t>
-  </si>
-  <si>
-    <t>No. 12, Chaoy&amp;&amp;ang Rd, Beijing</t>
-  </si>
-  <si>
-    <t>returns@ex&amp;port.cn</t>
-  </si>
-  <si>
-    <t>Wang&amp;&amp; Yu</t>
-  </si>
-  <si>
-    <t>139888&amp;&amp;87777</t>
-  </si>
-  <si>
-    <t>CN&amp;&amp;25</t>
-  </si>
-  <si>
-    <t>10&amp;0101</t>
-  </si>
-  <si>
-    <t>R87654&amp;&amp;337</t>
-  </si>
-  <si>
-    <t>USD&amp;&amp;</t>
-  </si>
-  <si>
-    <t>1&amp;&amp;</t>
-  </si>
-  <si>
-    <t>Tablet Android 10.1 inch&amp;&amp;</t>
-  </si>
-  <si>
-    <t>180&amp;</t>
-  </si>
-  <si>
-    <t>3&amp;</t>
-  </si>
-  <si>
-    <t>620&amp;</t>
-  </si>
-  <si>
-    <t>Lenovo&amp;&amp;</t>
-  </si>
-  <si>
-    <t>Tab P27&amp;&amp;</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>2&amp;&amp;</t>
-  </si>
-  <si>
-    <t>Portable Power Ban&amp;&amp;k 20000mAh</t>
-  </si>
-  <si>
-    <t>&amp;&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>PowerCor&amp;&amp;&amp;e 20016</t>
-  </si>
-  <si>
-    <t>https://shop.&amp;&amp;&amp;&amp;example.cn/item/ANK-20016</t>
-  </si>
-  <si>
-    <t>P58</t>
   </si>
   <si>
     <t>CHLOG-98XZ561251</t>
@@ -2185,7 +2160,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2196,18 +2171,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2239,7 +2202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2291,20 +2254,8 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -2547,7 +2498,8 @@
     <col customWidth="1" min="36" max="36" width="21.5"/>
     <col customWidth="1" min="39" max="39" width="10.25"/>
     <col customWidth="1" min="42" max="42" width="14.13"/>
-    <col customWidth="1" min="43" max="53" width="14.0"/>
+    <col customWidth="1" min="43" max="43" width="18.5"/>
+    <col customWidth="1" min="44" max="53" width="14.0"/>
     <col customWidth="1" min="54" max="54" width="63.25"/>
   </cols>
   <sheetData>
@@ -3011,36 +2963,34 @@
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="4">
-        <v>46000.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F4" s="5">
         <v>5.0</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>91</v>
+      <c r="G4" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="H4" s="4">
         <v>45760.0</v>
       </c>
-      <c r="I4" s="7">
-        <v>35.5</v>
+      <c r="I4" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="5">
         <v>2605.0</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -3064,20 +3014,32 @@
       <c r="T4" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
       <c r="AI4" s="3" t="s">
         <v>57</v>
       </c>
@@ -3087,51 +3049,69 @@
       <c r="AK4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="5">
         <v>180.0</v>
       </c>
       <c r="AM4" s="5">
         <v>3.0</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4" s="5">
         <v>620.0</v>
       </c>
       <c r="AO4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10">
-        <v>201.0</v>
-      </c>
-      <c r="BB4" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="4">
         <v>45999.0</v>
       </c>
@@ -3139,13 +3119,13 @@
         <v>5.0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4">
-        <v>45760.0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>97</v>
+        <v>45759.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>35.5</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="5">
@@ -3176,32 +3156,20 @@
       <c r="T5" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
       <c r="AI5" s="3" t="s">
         <v>57</v>
       </c>
@@ -3211,23 +3179,23 @@
       <c r="AK5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="7">
         <v>180.0</v>
       </c>
       <c r="AM5" s="5">
         <v>3.0</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="7">
         <v>620.0</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="AR5" s="3" t="s">
         <v>57</v>
@@ -3238,34 +3206,34 @@
       <c r="AT5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AU5" s="7">
         <v>35.0</v>
       </c>
       <c r="AV5" s="5">
         <v>1.0</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="7">
         <v>300.0</v>
       </c>
       <c r="AX5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="AY5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="AZ5" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="BA5" s="1">
         <v>400.0</v>
       </c>
       <c r="BB5" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>55</v>
@@ -3273,15 +3241,15 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
-        <v>45999.0</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="5">
         <v>5.0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H6" s="4">
         <v>45759.0</v>
@@ -3390,15 +3358,15 @@
         <v>400.0</v>
       </c>
       <c r="BB6" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>56</v>
@@ -3406,25 +3374,27 @@
       <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>45999.0</v>
+      </c>
       <c r="F7" s="5">
         <v>5.0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="4">
-        <v>45759.0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>35.5</v>
+        <v>45761.0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="5">
         <v>2605.0</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -3448,20 +3418,32 @@
       <c r="T7" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="8"/>
+      <c r="X7" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
       <c r="AI7" s="3" t="s">
         <v>57</v>
       </c>
@@ -3471,23 +3453,23 @@
       <c r="AK7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="5">
         <v>180.0</v>
       </c>
       <c r="AM7" s="5">
         <v>3.0</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7" s="5">
         <v>620.0</v>
       </c>
       <c r="AO7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="AR7" s="3" t="s">
         <v>57</v>
@@ -3498,37 +3480,37 @@
       <c r="AT7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AU7" s="7">
+      <c r="AU7" s="5">
         <v>35.0</v>
       </c>
       <c r="AV7" s="5">
         <v>1.0</v>
       </c>
-      <c r="AW7" s="7">
+      <c r="AW7" s="5">
         <v>300.0</v>
       </c>
       <c r="AX7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ7" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="BA7" s="1">
         <v>400.0</v>
       </c>
       <c r="BB7" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>56</v>
@@ -3543,20 +3525,20 @@
         <v>5.0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H8" s="4">
-        <v>45761.0</v>
+        <v>45762.0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="5">
         <v>2605.0</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -3581,7 +3563,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>64</v>
@@ -3591,13 +3573,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Z8" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
@@ -3631,7 +3613,7 @@
         <v>75</v>
       </c>
       <c r="AQ8" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AR8" s="3" t="s">
         <v>57</v>
@@ -3658,24 +3640,24 @@
         <v>79</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BA8" s="1">
         <v>400.0</v>
       </c>
       <c r="BB8" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>57</v>
@@ -3687,20 +3669,20 @@
         <v>5.0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H9" s="4">
-        <v>45762.0</v>
+        <v>45763.0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="5">
         <v>2605.0</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -3725,7 +3707,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>64</v>
@@ -3735,13 +3717,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Z9" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -3775,7 +3757,7 @@
         <v>75</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AR9" s="3" t="s">
         <v>57</v>
@@ -3802,27 +3784,27 @@
         <v>79</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BA9" s="1">
         <v>400.0</v>
       </c>
       <c r="BB9" s="12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="5">
+        <v>123.0</v>
       </c>
       <c r="E10" s="4">
         <v>45999.0</v>
@@ -3831,20 +3813,20 @@
         <v>5.0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H10" s="4">
-        <v>45763.0</v>
+        <v>45764.0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="5">
         <v>2605.0</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -3869,7 +3851,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>64</v>
@@ -3879,13 +3861,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3919,7 +3901,7 @@
         <v>75</v>
       </c>
       <c r="AQ10" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AR10" s="3" t="s">
         <v>57</v>
@@ -3946,18 +3928,18 @@
         <v>79</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BA10" s="1">
         <v>400.0</v>
       </c>
       <c r="BB10" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>55</v>
@@ -3965,30 +3947,30 @@
       <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5">
-        <v>123.0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45999.0</v>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F11" s="5">
         <v>5.0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H11" s="4">
-        <v>45764.0</v>
+        <v>45765.0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5">
         <v>2605.0</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -4013,7 +3995,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>64</v>
@@ -4023,13 +4005,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="Z11" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -4063,7 +4045,7 @@
         <v>75</v>
       </c>
       <c r="AQ11" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AR11" s="3" t="s">
         <v>57</v>
@@ -4090,49 +4072,49 @@
         <v>79</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BA11" s="1">
         <v>400.0</v>
       </c>
       <c r="BB11" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F12" s="5">
         <v>5.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H12" s="4">
         <v>45765.0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="5">
         <v>2605.0</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -4157,7 +4139,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>64</v>
@@ -4173,7 +4155,7 @@
         <v>518054.0</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -4207,7 +4189,7 @@
         <v>75</v>
       </c>
       <c r="AQ12" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AR12" s="3" t="s">
         <v>57</v>
@@ -4234,30 +4216,30 @@
         <v>79</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BA12" s="1">
         <v>400.0</v>
       </c>
       <c r="BB12" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>162</v>
+      <c r="E13" s="4">
+        <v>46003.0</v>
       </c>
       <c r="F13" s="5">
         <v>5.0</v>
@@ -4266,17 +4248,17 @@
         <v>163</v>
       </c>
       <c r="H13" s="4">
-        <v>45765.0</v>
+        <v>45766.0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="5">
         <v>2605.0</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -4301,7 +4283,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>64</v>
@@ -4311,13 +4293,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="Z13" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -4351,7 +4333,7 @@
         <v>75</v>
       </c>
       <c r="AQ13" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AR13" s="3" t="s">
         <v>57</v>
@@ -4378,21 +4360,21 @@
         <v>79</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="BA13" s="1">
         <v>400.0</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>56</v>
@@ -4401,26 +4383,26 @@
         <v>57</v>
       </c>
       <c r="E14" s="4">
-        <v>46003.0</v>
+        <v>46004.0</v>
       </c>
       <c r="F14" s="5">
         <v>5.0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="4">
-        <v>45766.0</v>
+        <v>174</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.0629258E7</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="5">
         <v>2605.0</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -4445,7 +4427,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>64</v>
@@ -4455,13 +4437,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Z14" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -4495,7 +4477,7 @@
         <v>75</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AR14" s="3" t="s">
         <v>57</v>
@@ -4522,21 +4504,21 @@
         <v>79</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="BA14" s="1">
         <v>400.0</v>
       </c>
-      <c r="BB14" s="12" t="s">
-        <v>175</v>
+      <c r="BB14" s="15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>56</v>
@@ -4551,20 +4533,20 @@
         <v>5.0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.0629258E7</v>
+        <v>184</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="5">
         <v>2605.0</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -4589,7 +4571,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>64</v>
@@ -4599,13 +4581,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Z15" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -4639,7 +4621,7 @@
         <v>75</v>
       </c>
       <c r="AQ15" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AR15" s="3" t="s">
         <v>57</v>
@@ -4666,21 +4648,21 @@
         <v>79</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BA15" s="1">
         <v>400.0</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>56</v>
@@ -4689,26 +4671,26 @@
         <v>57</v>
       </c>
       <c r="E16" s="4">
-        <v>46004.0</v>
+        <v>46005.0</v>
       </c>
       <c r="F16" s="5">
         <v>5.0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>179</v>
+      <c r="H16" s="4">
+        <v>45766.0</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="5">
         <v>2605.0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -4733,7 +4715,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>64</v>
@@ -4743,13 +4725,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Z16" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -4783,7 +4765,7 @@
         <v>75</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AR16" s="3" t="s">
         <v>57</v>
@@ -4810,21 +4792,21 @@
         <v>79</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="BA16" s="1">
         <v>400.0</v>
       </c>
-      <c r="BB16" s="15" t="s">
-        <v>186</v>
+      <c r="BB16" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>56</v>
@@ -4833,26 +4815,26 @@
         <v>57</v>
       </c>
       <c r="E17" s="4">
-        <v>46005.0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5.0</v>
+        <v>46006.0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H17" s="4">
         <v>45766.0</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>194</v>
+      <c r="I17" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5">
         <v>2605.0</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
@@ -4877,7 +4859,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>64</v>
@@ -4887,13 +4869,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Z17" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -4927,7 +4909,7 @@
         <v>75</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AR17" s="3" t="s">
         <v>57</v>
@@ -4954,21 +4936,21 @@
         <v>79</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="BA17" s="1">
         <v>400.0</v>
       </c>
       <c r="BB17" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>56</v>
@@ -4979,24 +4961,24 @@
       <c r="E18" s="4">
         <v>46006.0</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>203</v>
+      <c r="F18" s="3">
+        <v>-15.0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H18" s="4">
         <v>45766.0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="5">
         <v>2605.0</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -5021,7 +5003,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>64</v>
@@ -5031,13 +5013,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Z18" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -5071,7 +5053,7 @@
         <v>75</v>
       </c>
       <c r="AQ18" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AR18" s="3" t="s">
         <v>57</v>
@@ -5098,13 +5080,13 @@
         <v>79</v>
       </c>
       <c r="AZ18" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BA18" s="1">
         <v>400.0</v>
       </c>
       <c r="BB18" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
@@ -5112,7 +5094,7 @@
         <v>213</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>56</v>
@@ -5121,51 +5103,37 @@
         <v>57</v>
       </c>
       <c r="E19" s="4">
-        <v>46006.0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>-15.0</v>
+        <v>45999.0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.0</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>214</v>
       </c>
       <c r="H19" s="4">
-        <v>45766.0</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>205</v>
+        <v>45759.0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>35.5</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="5">
         <v>2605.0</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1502.0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>15067.0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>4.4556678E7</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>64</v>
@@ -5175,13 +5143,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z19" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -5199,13 +5167,13 @@
       <c r="AK19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AL19" s="7">
         <v>180.0</v>
       </c>
       <c r="AM19" s="5">
         <v>3.0</v>
       </c>
-      <c r="AN19" s="5">
+      <c r="AN19" s="7">
         <v>620.0</v>
       </c>
       <c r="AO19" s="3" t="s">
@@ -5215,7 +5183,7 @@
         <v>75</v>
       </c>
       <c r="AQ19" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AR19" s="3" t="s">
         <v>57</v>
@@ -5226,13 +5194,13 @@
       <c r="AT19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="AU19" s="7">
         <v>35.0</v>
       </c>
       <c r="AV19" s="5">
         <v>1.0</v>
       </c>
-      <c r="AW19" s="5">
+      <c r="AW19" s="7">
         <v>300.0</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -5242,18 +5210,18 @@
         <v>79</v>
       </c>
       <c r="AZ19" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BA19" s="1">
         <v>400.0</v>
       </c>
       <c r="BB19" s="12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
@@ -5271,7 +5239,7 @@
         <v>5.0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H20" s="4">
         <v>45759.0</v>
@@ -5284,42 +5252,42 @@
         <v>2605.0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
+      <c r="Q20" s="5">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1502.0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>15067.0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>4.4556678E7</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
       <c r="AI20" s="3" t="s">
         <v>57</v>
       </c>
@@ -5342,10 +5310,10 @@
         <v>74</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
-        <v>223</v>
+        <v>85</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="AR20" s="3" t="s">
         <v>57</v>
@@ -5369,21 +5337,21 @@
         <v>78</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ20" s="6" t="s">
-        <v>224</v>
+        <v>87</v>
+      </c>
+      <c r="AZ20" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="BA20" s="1">
         <v>400.0</v>
       </c>
       <c r="BB20" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -5395,13 +5363,13 @@
         <v>57</v>
       </c>
       <c r="E21" s="4">
-        <v>45999.0</v>
+        <v>46000.0</v>
       </c>
       <c r="F21" s="5">
         <v>5.0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H21" s="4">
         <v>45759.0</v>
@@ -5414,16 +5382,18 @@
         <v>2605.0</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="Q21" s="5">
         <v>9.87654321E8</v>
       </c>
@@ -5436,20 +5406,32 @@
       <c r="T21" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
+      <c r="U21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
       <c r="AI21" s="3" t="s">
         <v>57</v>
       </c>
@@ -5472,10 +5454,10 @@
         <v>74</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ21" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="AR21" s="3" t="s">
         <v>57</v>
@@ -5499,21 +5481,21 @@
         <v>78</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ21" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="AZ21" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="BA21" s="1">
         <v>400.0</v>
       </c>
       <c r="BB21" s="12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>55</v>
@@ -5525,13 +5507,13 @@
         <v>57</v>
       </c>
       <c r="E22" s="4">
-        <v>46000.0</v>
+        <v>46001.0</v>
       </c>
       <c r="F22" s="5">
         <v>5.0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H22" s="4">
         <v>45759.0</v>
@@ -5544,20 +5526,20 @@
         <v>2605.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="5">
-        <v>9.87654321E8</v>
+      <c r="Q22" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="R22" s="5">
         <v>1502.0</v>
@@ -5569,7 +5551,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>64</v>
@@ -5579,13 +5561,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Z22" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -5619,7 +5601,7 @@
         <v>75</v>
       </c>
       <c r="AQ22" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AR22" s="3" t="s">
         <v>57</v>
@@ -5646,18 +5628,18 @@
         <v>79</v>
       </c>
       <c r="AZ22" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="BA22" s="1">
         <v>400.0</v>
       </c>
       <c r="BB22" s="12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>55</v>
@@ -5669,13 +5651,13 @@
         <v>57</v>
       </c>
       <c r="E23" s="4">
-        <v>46001.0</v>
+        <v>46002.0</v>
       </c>
       <c r="F23" s="5">
         <v>5.0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H23" s="4">
         <v>45759.0</v>
@@ -5688,7 +5670,7 @@
         <v>2605.0</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -5700,8 +5682,8 @@
       <c r="P23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>242</v>
+      <c r="Q23" s="5">
+        <v>9.87654321E8</v>
       </c>
       <c r="R23" s="5">
         <v>1502.0</v>
@@ -5709,28 +5691,16 @@
       <c r="S23" s="5">
         <v>15067.0</v>
       </c>
-      <c r="T23" s="5">
-        <v>4.4556678E7</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="T23" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
@@ -5763,7 +5733,7 @@
         <v>75</v>
       </c>
       <c r="AQ23" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AR23" s="3" t="s">
         <v>57</v>
@@ -5790,18 +5760,18 @@
         <v>79</v>
       </c>
       <c r="AZ23" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BA23" s="1">
         <v>400.0</v>
       </c>
       <c r="BB23" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>55</v>
@@ -5813,13 +5783,13 @@
         <v>57</v>
       </c>
       <c r="E24" s="4">
-        <v>46002.0</v>
+        <v>46003.0</v>
       </c>
       <c r="F24" s="5">
         <v>5.0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H24" s="4">
         <v>45759.0</v>
@@ -5832,7 +5802,7 @@
         <v>2605.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -5853,8 +5823,8 @@
       <c r="S24" s="5">
         <v>15067.0</v>
       </c>
-      <c r="T24" s="5" t="s">
-        <v>252</v>
+      <c r="T24" s="5">
+        <v>4.4556678E7</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
@@ -5863,19 +5833,31 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
+      <c r="AB24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="AI24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ24" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="AJ24" s="5"/>
       <c r="AK24" s="3" t="s">
         <v>73</v>
       </c>
@@ -5895,7 +5877,7 @@
         <v>75</v>
       </c>
       <c r="AQ24" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AR24" s="3" t="s">
         <v>57</v>
@@ -5922,18 +5904,18 @@
         <v>79</v>
       </c>
       <c r="AZ24" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BA24" s="1">
         <v>400.0</v>
       </c>
       <c r="BB24" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>55</v>
@@ -5945,13 +5927,13 @@
         <v>57</v>
       </c>
       <c r="E25" s="4">
-        <v>46003.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F25" s="5">
         <v>5.0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H25" s="4">
         <v>45759.0</v>
@@ -5964,7 +5946,7 @@
         <v>2605.0</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -5988,96 +5970,48 @@
       <c r="T25" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
       <c r="AJ25" s="5"/>
-      <c r="AK25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL25" s="7">
-        <v>180.0</v>
-      </c>
-      <c r="AM25" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="AN25" s="7">
-        <v>620.0</v>
-      </c>
-      <c r="AO25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS25" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="AT25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU25" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="AV25" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AW25" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="AX25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ25" s="6" t="s">
-        <v>260</v>
-      </c>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="10"/>
       <c r="BA25" s="1">
         <v>400.0</v>
       </c>
       <c r="BB25" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>55</v>
@@ -6095,7 +6029,7 @@
         <v>5.0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H26" s="4">
         <v>45759.0</v>
@@ -6146,55 +6080,89 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="3"/>
+      <c r="AI26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AK26" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="AL26" s="7"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="10"/>
+      <c r="AM26" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="AN26" s="7">
+        <v>620.0</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS26" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="AT26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU26" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="AV26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AW26" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="AX26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ26" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="BA26" s="1">
         <v>400.0</v>
       </c>
       <c r="BB26" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="4">
-        <v>45999.0</v>
+        <v>46005.0</v>
       </c>
       <c r="F27" s="5">
         <v>5.0</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="10" t="s">
         <v>266</v>
       </c>
       <c r="H27" s="4">
-        <v>45759.0</v>
+        <v>45761.0</v>
       </c>
       <c r="I27" s="7">
         <v>35.5</v>
@@ -6204,7 +6172,7 @@
         <v>2605.0</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -6228,30 +6196,46 @@
       <c r="T27" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="AI27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ27" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AK27" s="16" t="s">
+      <c r="AJ27" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL27" s="7"/>
+      <c r="AL27" s="7">
+        <v>180.0</v>
+      </c>
       <c r="AM27" s="5">
         <v>3.0</v>
       </c>
@@ -6262,10 +6246,10 @@
         <v>74</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AQ27" s="10" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="AR27" s="3" t="s">
         <v>57</v>
@@ -6289,42 +6273,42 @@
         <v>78</v>
       </c>
       <c r="AY27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ27" s="11" t="s">
-        <v>88</v>
+        <v>272</v>
+      </c>
+      <c r="AZ27" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="BA27" s="1">
         <v>400.0</v>
       </c>
       <c r="BB27" s="12" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4">
-        <v>46005.0</v>
+        <v>46006.0</v>
       </c>
       <c r="F28" s="5">
         <v>5.0</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H28" s="4">
-        <v>45761.0</v>
+        <v>45762.0</v>
       </c>
       <c r="I28" s="7">
         <v>35.5</v>
@@ -6334,7 +6318,7 @@
         <v>2605.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -6378,19 +6362,19 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AG28" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AI28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AK28" s="3" t="s">
         <v>73</v>
@@ -6408,10 +6392,10 @@
         <v>74</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="AR28" s="3" t="s">
         <v>57</v>
@@ -6435,27 +6419,27 @@
         <v>78</v>
       </c>
       <c r="AY28" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AZ28" s="10" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="BA28" s="1">
         <v>400.0</v>
       </c>
       <c r="BB28" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>57</v>
@@ -6467,7 +6451,7 @@
         <v>5.0</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H29" s="4">
         <v>45762.0</v>
@@ -6480,7 +6464,7 @@
         <v>2605.0</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -6524,25 +6508,25 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AG29" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AI29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ29" s="17" t="s">
-        <v>282</v>
+      <c r="AJ29" s="5">
+        <v>1.0</v>
       </c>
       <c r="AK29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL29" s="7">
-        <v>180.0</v>
+      <c r="AL29" s="13" t="s">
+        <v>286</v>
       </c>
       <c r="AM29" s="5">
         <v>3.0</v>
@@ -6554,10 +6538,10 @@
         <v>74</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AQ29" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AR29" s="3" t="s">
         <v>57</v>
@@ -6581,15 +6565,15 @@
         <v>78</v>
       </c>
       <c r="AY29" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ29" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="BA29" s="18">
+        <v>284</v>
+      </c>
+      <c r="BA29" s="1">
         <v>400.0</v>
       </c>
-      <c r="BB29" s="19" t="s">
+      <c r="BB29" s="12" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6601,7 +6585,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>57</v>
@@ -6613,7 +6597,7 @@
         <v>5.0</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H30" s="4">
         <v>45762.0</v>
@@ -6626,7 +6610,7 @@
         <v>2605.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -6670,13 +6654,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AG30" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AI30" s="3" t="s">
         <v>57</v>
@@ -6700,10 +6684,10 @@
         <v>74</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AQ30" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AR30" s="3" t="s">
         <v>57</v>
@@ -6727,10 +6711,10 @@
         <v>78</v>
       </c>
       <c r="AY30" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ30" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BA30" s="1">
         <v>400.0</v>
@@ -6747,22 +6731,22 @@
         <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E31" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="F31" s="5">
         <v>5.0</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H31" s="4">
-        <v>45762.0</v>
+        <v>45763.0</v>
       </c>
       <c r="I31" s="7">
         <v>35.5</v>
@@ -6772,7 +6756,7 @@
         <v>2605.0</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -6816,13 +6800,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AG31" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AI31" s="3" t="s">
         <v>57</v>
@@ -6833,11 +6817,11 @@
       <c r="AK31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL31" s="13" t="s">
-        <v>292</v>
+      <c r="AL31" s="7">
+        <v>180.0</v>
       </c>
       <c r="AM31" s="5">
-        <v>3.0</v>
+        <v>3123.0</v>
       </c>
       <c r="AN31" s="7">
         <v>620.0</v>
@@ -6846,10 +6830,10 @@
         <v>74</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AR31" s="3" t="s">
         <v>57</v>
@@ -6873,42 +6857,42 @@
         <v>78</v>
       </c>
       <c r="AY31" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="AZ31" s="10" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="BA31" s="1">
         <v>400.0</v>
       </c>
-      <c r="BB31" s="19" t="s">
-        <v>293</v>
+      <c r="BB31" s="12" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="4">
-        <v>46007.0</v>
+      <c r="E32" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="F32" s="5">
         <v>5.0</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H32" s="4">
-        <v>45763.0</v>
+        <v>45764.0</v>
       </c>
       <c r="I32" s="7">
         <v>35.5</v>
@@ -6918,7 +6902,7 @@
         <v>2605.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -6962,13 +6946,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG32" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AI32" s="3" t="s">
         <v>57</v>
@@ -6983,7 +6967,7 @@
         <v>180.0</v>
       </c>
       <c r="AM32" s="5">
-        <v>3123.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN32" s="7">
         <v>620.0</v>
@@ -6992,10 +6976,10 @@
         <v>74</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AR32" s="3" t="s">
         <v>57</v>
@@ -7019,42 +7003,42 @@
         <v>78</v>
       </c>
       <c r="AY32" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AZ32" s="10" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="BA32" s="1">
         <v>400.0</v>
       </c>
       <c r="BB32" s="12" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>306</v>
+      <c r="E33" s="4">
+        <v>45999.0</v>
       </c>
       <c r="F33" s="5">
         <v>5.0</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>307</v>
+      <c r="G33" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="H33" s="4">
-        <v>45764.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I33" s="7">
         <v>35.5</v>
@@ -7064,7 +7048,7 @@
         <v>2605.0</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -7088,34 +7072,20 @@
       <c r="T33" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF33" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG33" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH33" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
       <c r="AI33" s="3" t="s">
         <v>57</v>
       </c>
@@ -7138,10 +7108,10 @@
         <v>74</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="AR33" s="3" t="s">
         <v>57</v>
@@ -7165,16 +7135,16 @@
         <v>78</v>
       </c>
       <c r="AY33" s="3" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="AZ33" s="10" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="BA33" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB33" s="12" t="s">
-        <v>160</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB33" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -7191,16 +7161,16 @@
         <v>57</v>
       </c>
       <c r="E34" s="4">
-        <v>45999.0</v>
+        <v>46000.0</v>
       </c>
       <c r="F34" s="5">
         <v>5.0</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="17" t="s">
         <v>316</v>
       </c>
       <c r="H34" s="4">
-        <v>45759.0</v>
+        <v>45760.0</v>
       </c>
       <c r="I34" s="7">
         <v>35.5</v>
@@ -7210,7 +7180,7 @@
         <v>2605.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -7270,10 +7240,10 @@
         <v>74</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="AR34" s="3" t="s">
         <v>57</v>
@@ -7297,42 +7267,42 @@
         <v>78</v>
       </c>
       <c r="AY34" s="3" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="AZ34" s="10" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="BA34" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="BB34" s="11" t="s">
-        <v>81</v>
+        <v>400.0</v>
+      </c>
+      <c r="BB34" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4">
-        <v>46000.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F35" s="5">
         <v>5.0</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>91</v>
+      <c r="G35" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="H35" s="4">
-        <v>45760.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I35" s="7">
         <v>35.5</v>
@@ -7342,7 +7312,7 @@
         <v>2605.0</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -7402,10 +7372,10 @@
         <v>74</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AQ35" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AR35" s="3" t="s">
         <v>57</v>
@@ -7429,16 +7399,16 @@
         <v>78</v>
       </c>
       <c r="AY35" s="3" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="AZ35" s="10" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="BA35" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB35" s="12" t="s">
-        <v>319</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB35" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -7449,22 +7419,22 @@
         <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="4">
-        <v>45999.0</v>
+        <v>46009.0</v>
       </c>
       <c r="F36" s="5">
         <v>5.0</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>321</v>
+      <c r="G36" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="H36" s="4">
-        <v>45759.0</v>
+        <v>45765.0</v>
       </c>
       <c r="I36" s="7">
         <v>35.5</v>
@@ -7474,7 +7444,7 @@
         <v>2605.0</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -7498,20 +7468,34 @@
       <c r="T36" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="AI36" s="3" t="s">
         <v>57</v>
       </c>
@@ -7534,10 +7518,10 @@
         <v>74</v>
       </c>
       <c r="AP36" s="3" t="s">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="AQ36" s="10" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="AR36" s="3" t="s">
         <v>57</v>
@@ -7561,52 +7545,52 @@
         <v>78</v>
       </c>
       <c r="AY36" s="3" t="s">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="AZ36" s="10" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="BA36" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="BB36" s="21" t="s">
-        <v>106</v>
+        <v>400.0</v>
+      </c>
+      <c r="BB36" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="24.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="4">
-        <v>46009.0</v>
+        <v>46010.0</v>
       </c>
       <c r="F37" s="5">
         <v>5.0</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>324</v>
+      <c r="G37" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="H37" s="4">
-        <v>45765.0</v>
+        <v>45766.0</v>
       </c>
       <c r="I37" s="7">
         <v>35.5</v>
       </c>
       <c r="J37" s="8"/>
-      <c r="K37" s="5">
-        <v>2605.0</v>
+      <c r="K37" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -7650,13 +7634,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF37" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AG37" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH37" s="3" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AI37" s="3" t="s">
         <v>57</v>
@@ -7680,10 +7664,10 @@
         <v>74</v>
       </c>
       <c r="AP37" s="3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AQ37" s="10" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AR37" s="3" t="s">
         <v>57</v>
@@ -7707,52 +7691,54 @@
         <v>78</v>
       </c>
       <c r="AY37" s="3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AZ37" s="10" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="BA37" s="1">
         <v>400.0</v>
       </c>
       <c r="BB37" s="12" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="4">
-        <v>46010.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F38" s="5">
         <v>5.0</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>334</v>
+      <c r="G38" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="H38" s="4">
-        <v>45766.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I38" s="7">
         <v>35.5</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="22" t="s">
-        <v>335</v>
+      <c r="J38" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2605.0</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -7776,34 +7762,20 @@
       <c r="T38" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE38" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF38" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG38" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH38" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
       <c r="AI38" s="3" t="s">
         <v>57</v>
       </c>
@@ -7826,10 +7798,10 @@
         <v>74</v>
       </c>
       <c r="AP38" s="3" t="s">
-        <v>338</v>
+        <v>85</v>
       </c>
       <c r="AQ38" s="10" t="s">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="AR38" s="3" t="s">
         <v>57</v>
@@ -7853,54 +7825,54 @@
         <v>78</v>
       </c>
       <c r="AY38" s="3" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="AZ38" s="10" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="BA38" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB38" s="12" t="s">
-        <v>342</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB38" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="39" ht="24.75" customHeight="1">
+    <row r="39" ht="21.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="4">
-        <v>45999.0</v>
+        <v>46011.0</v>
       </c>
       <c r="F39" s="5">
         <v>5.0</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>344</v>
+      <c r="G39" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="H39" s="4">
-        <v>45759.0</v>
+        <v>45767.0</v>
       </c>
       <c r="I39" s="7">
         <v>35.5</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>345</v>
+      <c r="J39" s="18" t="s">
+        <v>347</v>
       </c>
       <c r="K39" s="5">
         <v>2605.0</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="s">
@@ -7924,20 +7896,34 @@
       <c r="T39" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="AI39" s="3" t="s">
         <v>57</v>
       </c>
@@ -7960,10 +7946,10 @@
         <v>74</v>
       </c>
       <c r="AP39" s="3" t="s">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="AQ39" s="10" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="AR39" s="3" t="s">
         <v>57</v>
@@ -7987,56 +7973,56 @@
         <v>78</v>
       </c>
       <c r="AY39" s="3" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="AZ39" s="10" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="BA39" s="1">
         <v>400.0</v>
       </c>
-      <c r="BB39" s="21" t="s">
-        <v>106</v>
+      <c r="BB39" s="12" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="40" ht="21.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>347</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="4">
-        <v>46011.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F40" s="5">
         <v>5.0</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>348</v>
+      <c r="G40" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="H40" s="4">
-        <v>45767.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I40" s="7">
         <v>35.5</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>349</v>
-      </c>
+      <c r="J40" s="8"/>
       <c r="K40" s="5">
         <v>2605.0</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="M40" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="N40" s="3" t="s">
         <v>60</v>
       </c>
@@ -8058,34 +8044,20 @@
       <c r="T40" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF40" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG40" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH40" s="3" t="s">
-        <v>352</v>
-      </c>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
       <c r="AI40" s="3" t="s">
         <v>57</v>
       </c>
@@ -8108,10 +8080,10 @@
         <v>74</v>
       </c>
       <c r="AP40" s="3" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="AQ40" s="10" t="s">
-        <v>354</v>
+        <v>86</v>
       </c>
       <c r="AR40" s="3" t="s">
         <v>57</v>
@@ -8135,42 +8107,42 @@
         <v>78</v>
       </c>
       <c r="AY40" s="3" t="s">
-        <v>355</v>
+        <v>87</v>
       </c>
       <c r="AZ40" s="10" t="s">
-        <v>356</v>
+        <v>88</v>
       </c>
       <c r="BA40" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB40" s="12" t="s">
-        <v>357</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB40" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="41" ht="21.75" customHeight="1">
+    <row r="41" ht="24.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="4">
-        <v>45999.0</v>
+        <v>46012.0</v>
       </c>
       <c r="F41" s="5">
         <v>5.0</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>359</v>
+      <c r="G41" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="H41" s="4">
-        <v>45759.0</v>
+        <v>45768.0</v>
       </c>
       <c r="I41" s="7">
         <v>35.5</v>
@@ -8180,10 +8152,10 @@
         <v>2605.0</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>60</v>
@@ -8206,20 +8178,34 @@
       <c r="T41" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="AI41" s="3" t="s">
         <v>57</v>
       </c>
@@ -8242,10 +8228,10 @@
         <v>74</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>85</v>
+        <v>366</v>
       </c>
       <c r="AQ41" s="10" t="s">
-        <v>86</v>
+        <v>367</v>
       </c>
       <c r="AR41" s="3" t="s">
         <v>57</v>
@@ -8269,42 +8255,42 @@
         <v>78</v>
       </c>
       <c r="AY41" s="3" t="s">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="AZ41" s="10" t="s">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="BA41" s="1">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="BB41" s="11" t="s">
-        <v>81</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>362</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="4">
-        <v>46012.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F42" s="5">
         <v>5.0</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>363</v>
+      <c r="G42" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="H42" s="4">
-        <v>45768.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I42" s="7">
         <v>35.5</v>
@@ -8314,13 +8300,11 @@
         <v>2605.0</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="M42" s="22" t="s">
-        <v>365</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>61</v>
@@ -8340,34 +8324,20 @@
       <c r="T42" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF42" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG42" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH42" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
       <c r="AI42" s="3" t="s">
         <v>57</v>
       </c>
@@ -8390,10 +8360,10 @@
         <v>74</v>
       </c>
       <c r="AP42" s="3" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="AQ42" s="10" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="AR42" s="3" t="s">
         <v>57</v>
@@ -8417,42 +8387,42 @@
         <v>78</v>
       </c>
       <c r="AY42" s="3" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="AZ42" s="10" t="s">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="BA42" s="1">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="BB42" s="11" t="s">
-        <v>372</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="43" ht="24.0" customHeight="1">
+    <row r="43">
       <c r="A43" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="4">
-        <v>45999.0</v>
+        <v>46013.0</v>
       </c>
       <c r="F43" s="5">
         <v>5.0</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>374</v>
+      <c r="G43" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="H43" s="4">
-        <v>45759.0</v>
+        <v>45769.0</v>
       </c>
       <c r="I43" s="7">
         <v>35.5</v>
@@ -8462,11 +8432,11 @@
         <v>2605.0</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>61</v>
@@ -8486,20 +8456,48 @@
       <c r="T43" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
+      <c r="U43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="AI43" s="3" t="s">
         <v>57</v>
       </c>
@@ -8522,10 +8520,10 @@
         <v>74</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="AQ43" s="10" t="s">
-        <v>86</v>
+        <v>382</v>
       </c>
       <c r="AR43" s="3" t="s">
         <v>57</v>
@@ -8549,42 +8547,42 @@
         <v>78</v>
       </c>
       <c r="AY43" s="3" t="s">
-        <v>87</v>
+        <v>383</v>
       </c>
       <c r="AZ43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA43" s="1">
-        <v>201.0</v>
+        <v>384</v>
+      </c>
+      <c r="BA43" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB43" s="11" t="s">
-        <v>81</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>377</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="4">
-        <v>46013.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F44" s="5">
         <v>5.0</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>378</v>
+      <c r="G44" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="H44" s="4">
-        <v>45769.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I44" s="7">
         <v>35.5</v>
@@ -8594,17 +8592,17 @@
         <v>2605.0</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>379</v>
+        <v>84</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>62</v>
+        <v>388</v>
       </c>
       <c r="Q44" s="5">
         <v>9.87654321E8</v>
@@ -8618,48 +8616,20 @@
       <c r="T44" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE44" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF44" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG44" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH44" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
       <c r="AI44" s="3" t="s">
         <v>57</v>
       </c>
@@ -8682,10 +8652,10 @@
         <v>74</v>
       </c>
       <c r="AP44" s="3" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="AQ44" s="10" t="s">
-        <v>384</v>
+        <v>86</v>
       </c>
       <c r="AR44" s="3" t="s">
         <v>57</v>
@@ -8709,42 +8679,42 @@
         <v>78</v>
       </c>
       <c r="AY44" s="3" t="s">
-        <v>385</v>
+        <v>87</v>
       </c>
       <c r="AZ44" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA44" s="10">
-        <v>400.0</v>
+        <v>88</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB44" s="11" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="4">
-        <v>45999.0</v>
+        <v>46014.0</v>
       </c>
       <c r="F45" s="5">
         <v>5.0</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>389</v>
+      <c r="G45" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="H45" s="4">
-        <v>45759.0</v>
+        <v>45770.0</v>
       </c>
       <c r="I45" s="7">
         <v>35.5</v>
@@ -8754,7 +8724,7 @@
         <v>2605.0</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -8764,7 +8734,7 @@
         <v>61</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q45" s="5">
         <v>9.87654321E8</v>
@@ -8778,20 +8748,48 @@
       <c r="T45" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
+      <c r="U45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="AI45" s="3" t="s">
         <v>57</v>
       </c>
@@ -8814,10 +8812,10 @@
         <v>74</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>85</v>
+        <v>396</v>
       </c>
       <c r="AQ45" s="10" t="s">
-        <v>86</v>
+        <v>397</v>
       </c>
       <c r="AR45" s="3" t="s">
         <v>57</v>
@@ -8841,42 +8839,42 @@
         <v>78</v>
       </c>
       <c r="AY45" s="3" t="s">
-        <v>87</v>
+        <v>398</v>
       </c>
       <c r="AZ45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA45" s="1">
-        <v>201.0</v>
+        <v>399</v>
+      </c>
+      <c r="BA45" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB45" s="11" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>392</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="4">
-        <v>46014.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F46" s="5">
         <v>5.0</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>393</v>
+      <c r="G46" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="H46" s="4">
-        <v>45770.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I46" s="7">
         <v>35.5</v>
@@ -8886,7 +8884,7 @@
         <v>2605.0</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -8896,7 +8894,7 @@
         <v>61</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="Q46" s="5">
         <v>9.87654321E8</v>
@@ -8910,48 +8908,22 @@
       <c r="T46" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE46" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF46" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG46" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH46" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
       <c r="AI46" s="3" t="s">
         <v>57</v>
       </c>
@@ -8974,10 +8946,10 @@
         <v>74</v>
       </c>
       <c r="AP46" s="3" t="s">
-        <v>398</v>
+        <v>85</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="AR46" s="3" t="s">
         <v>57</v>
@@ -9001,42 +8973,42 @@
         <v>78</v>
       </c>
       <c r="AY46" s="3" t="s">
-        <v>400</v>
+        <v>87</v>
       </c>
       <c r="AZ46" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="BA46" s="10">
-        <v>400.0</v>
+        <v>88</v>
+      </c>
+      <c r="BA46" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB46" s="11" t="s">
-        <v>402</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>405</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4">
-        <v>45999.0</v>
+        <v>46015.0</v>
       </c>
       <c r="F47" s="5">
         <v>5.0</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>404</v>
+      <c r="G47" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="H47" s="4">
-        <v>45759.0</v>
+        <v>45771.0</v>
       </c>
       <c r="I47" s="7">
         <v>35.5</v>
@@ -9046,7 +9018,7 @@
         <v>2605.0</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>84</v>
+        <v>407</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
@@ -9061,8 +9033,8 @@
       <c r="Q47" s="5">
         <v>9.87654321E8</v>
       </c>
-      <c r="R47" s="5">
-        <v>1502.0</v>
+      <c r="R47" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="S47" s="5">
         <v>15067.0</v>
@@ -9070,22 +9042,48 @@
       <c r="T47" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
+      <c r="U47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X47" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="AI47" s="3" t="s">
         <v>57</v>
       </c>
@@ -9108,10 +9106,10 @@
         <v>74</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>85</v>
+        <v>411</v>
       </c>
       <c r="AQ47" s="10" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="AR47" s="3" t="s">
         <v>57</v>
@@ -9135,21 +9133,21 @@
         <v>78</v>
       </c>
       <c r="AY47" s="3" t="s">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="AZ47" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA47" s="1">
-        <v>201.0</v>
+        <v>414</v>
+      </c>
+      <c r="BA47" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB47" s="11" t="s">
-        <v>81</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>55</v>
@@ -9167,7 +9165,7 @@
         <v>5.0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H48" s="4">
         <v>45759.0</v>
@@ -9207,9 +9205,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="X48" s="22" t="s">
-        <v>408</v>
-      </c>
+      <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
@@ -9227,7 +9223,7 @@
         <v>1.0</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>73</v>
+        <v>418</v>
       </c>
       <c r="AL48" s="7">
         <v>180.0</v>
@@ -9274,37 +9270,37 @@
       <c r="AZ48" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA48" s="10">
-        <v>400.0</v>
+      <c r="BA48" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB48" s="11" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E49" s="4">
-        <v>46015.0</v>
+        <v>46016.0</v>
       </c>
       <c r="F49" s="5">
         <v>5.0</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H49" s="4">
-        <v>45771.0</v>
+        <v>45772.0</v>
       </c>
       <c r="I49" s="7">
         <v>35.5</v>
@@ -9314,7 +9310,7 @@
         <v>2605.0</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
@@ -9329,8 +9325,8 @@
       <c r="Q49" s="5">
         <v>9.87654321E8</v>
       </c>
-      <c r="R49" s="5" t="s">
-        <v>414</v>
+      <c r="R49" s="5">
+        <v>1502.0</v>
       </c>
       <c r="S49" s="5">
         <v>15067.0</v>
@@ -9339,7 +9335,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>64</v>
@@ -9351,13 +9347,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Z49" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>68</v>
@@ -9372,13 +9368,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF49" s="3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AG49" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AI49" s="3" t="s">
         <v>57</v>
@@ -9387,7 +9383,7 @@
         <v>1.0</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>73</v>
+        <v>425</v>
       </c>
       <c r="AL49" s="7">
         <v>180.0</v>
@@ -9402,10 +9398,10 @@
         <v>74</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AQ49" s="10" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AR49" s="3" t="s">
         <v>57</v>
@@ -9429,21 +9425,21 @@
         <v>78</v>
       </c>
       <c r="AY49" s="3" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AZ49" s="10" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="BA49" s="10">
         <v>400.0</v>
       </c>
       <c r="BB49" s="11" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>55</v>
@@ -9461,7 +9457,7 @@
         <v>5.0</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H50" s="4">
         <v>45759.0</v>
@@ -9519,7 +9515,7 @@
         <v>1.0</v>
       </c>
       <c r="AK50" s="3" t="s">
-        <v>424</v>
+        <v>73</v>
       </c>
       <c r="AL50" s="7">
         <v>180.0</v>
@@ -9531,7 +9527,7 @@
         <v>620.0</v>
       </c>
       <c r="AO50" s="3" t="s">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="AP50" s="3" t="s">
         <v>85</v>
@@ -9566,7 +9562,7 @@
       <c r="AZ50" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA50" s="1">
+      <c r="BA50" s="10">
         <v>201.0</v>
       </c>
       <c r="BB50" s="11" t="s">
@@ -9575,28 +9571,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="4">
-        <v>46016.0</v>
+        <v>46017.0</v>
       </c>
       <c r="F51" s="5">
         <v>5.0</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H51" s="4">
-        <v>45772.0</v>
+        <v>45773.0</v>
       </c>
       <c r="I51" s="7">
         <v>35.5</v>
@@ -9606,7 +9602,7 @@
         <v>2605.0</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -9631,7 +9627,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="V51" s="3" t="s">
         <v>64</v>
@@ -9643,13 +9639,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Z51" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA51" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AB51" s="3" t="s">
         <v>68</v>
@@ -9664,13 +9660,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="AG51" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="AI51" s="3" t="s">
         <v>57</v>
@@ -9679,7 +9675,7 @@
         <v>1.0</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>431</v>
+        <v>73</v>
       </c>
       <c r="AL51" s="7">
         <v>180.0</v>
@@ -9691,13 +9687,13 @@
         <v>620.0</v>
       </c>
       <c r="AO51" s="3" t="s">
-        <v>74</v>
+        <v>440</v>
       </c>
       <c r="AP51" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AQ51" s="10" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AR51" s="3" t="s">
         <v>57</v>
@@ -9721,21 +9717,21 @@
         <v>78</v>
       </c>
       <c r="AY51" s="3" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AZ51" s="10" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="BA51" s="10">
         <v>400.0</v>
       </c>
       <c r="BB51" s="11" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>55</v>
@@ -9753,7 +9749,7 @@
         <v>5.0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H52" s="4">
         <v>45759.0</v>
@@ -9823,10 +9819,10 @@
         <v>620.0</v>
       </c>
       <c r="AO52" s="3" t="s">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>85</v>
+        <v>448</v>
       </c>
       <c r="AQ52" s="10" t="s">
         <v>86</v>
@@ -9858,37 +9854,37 @@
       <c r="AZ52" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BA52" s="10">
-        <v>400.0</v>
+      <c r="BA52" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB52" s="11" t="s">
-        <v>440</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E53" s="4">
-        <v>46017.0</v>
+        <v>46018.0</v>
       </c>
       <c r="F53" s="5">
         <v>5.0</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H53" s="4">
-        <v>45773.0</v>
+        <v>45774.0</v>
       </c>
       <c r="I53" s="7">
         <v>35.5</v>
@@ -9898,7 +9894,7 @@
         <v>2605.0</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -9923,7 +9919,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="V53" s="3" t="s">
         <v>64</v>
@@ -9935,13 +9931,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Z53" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AB53" s="3" t="s">
         <v>68</v>
@@ -9956,13 +9952,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AG53" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH53" s="3" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AI53" s="3" t="s">
         <v>57</v>
@@ -9983,13 +9979,13 @@
         <v>620.0</v>
       </c>
       <c r="AO53" s="3" t="s">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AP53" s="3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AQ53" s="10" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AR53" s="3" t="s">
         <v>57</v>
@@ -10013,21 +10009,21 @@
         <v>78</v>
       </c>
       <c r="AY53" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AZ53" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="BA53" s="10">
         <v>400.0</v>
       </c>
       <c r="BB53" s="11" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>55</v>
@@ -10045,7 +10041,7 @@
         <v>5.0</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H54" s="4">
         <v>45759.0</v>
@@ -10118,10 +10114,10 @@
         <v>74</v>
       </c>
       <c r="AP54" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AQ54" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="AQ54" s="17" t="s">
+        <v>462</v>
       </c>
       <c r="AR54" s="3" t="s">
         <v>57</v>
@@ -10147,7 +10143,7 @@
       <c r="AY54" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AZ54" s="10" t="s">
+      <c r="AZ54" s="17" t="s">
         <v>88</v>
       </c>
       <c r="BA54" s="1">
@@ -10159,28 +10155,28 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="4">
-        <v>46018.0</v>
+        <v>46019.0</v>
       </c>
       <c r="F55" s="5">
         <v>5.0</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H55" s="4">
-        <v>45774.0</v>
+        <v>45775.0</v>
       </c>
       <c r="I55" s="7">
         <v>35.5</v>
@@ -10190,7 +10186,7 @@
         <v>2605.0</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
@@ -10215,7 +10211,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>64</v>
@@ -10227,13 +10223,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="Z55" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA55" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AB55" s="3" t="s">
         <v>68</v>
@@ -10248,13 +10244,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AG55" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AI55" s="3" t="s">
         <v>57</v>
@@ -10278,10 +10274,10 @@
         <v>74</v>
       </c>
       <c r="AP55" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="AQ55" s="10" t="s">
-        <v>463</v>
+        <v>469</v>
+      </c>
+      <c r="AQ55" s="17" t="s">
+        <v>470</v>
       </c>
       <c r="AR55" s="3" t="s">
         <v>57</v>
@@ -10305,174 +10301,206 @@
         <v>78</v>
       </c>
       <c r="AY55" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ55" s="10" t="s">
-        <v>465</v>
+        <v>471</v>
+      </c>
+      <c r="AZ55" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="BA55" s="10">
         <v>400.0</v>
       </c>
       <c r="BB55" s="11" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>55</v>
+        <v>475</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>476</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="4">
-        <v>45999.0</v>
-      </c>
-      <c r="F56" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="H56" s="4">
-        <v>45759.0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>35.5</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="5">
-        <v>2605.0</v>
+        <v>477</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M56" s="3"/>
+        <v>484</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="N56" s="3" t="s">
-        <v>60</v>
+        <v>485</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>61</v>
+        <v>486</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="R56" s="5">
-        <v>1502.0</v>
-      </c>
-      <c r="S56" s="5">
-        <v>15067.0</v>
-      </c>
-      <c r="T56" s="5">
-        <v>4.4556678E7</v>
-      </c>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
+        <v>487</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG56" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>505</v>
+      </c>
       <c r="AI56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ56" s="5">
-        <v>1.0</v>
+        <v>506</v>
+      </c>
+      <c r="AJ56" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="AK56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL56" s="7">
-        <v>180.0</v>
-      </c>
-      <c r="AM56" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="AN56" s="7">
-        <v>620.0</v>
+        <v>508</v>
+      </c>
+      <c r="AL56" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM56" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN56" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="AO56" s="3" t="s">
-        <v>74</v>
+        <v>512</v>
       </c>
       <c r="AP56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ56" s="20" t="s">
-        <v>469</v>
+        <v>513</v>
+      </c>
+      <c r="AQ56" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS56" s="5">
-        <v>2.0</v>
+        <v>506</v>
+      </c>
+      <c r="AS56" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU56" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="AV56" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AW56" s="7">
-        <v>300.0</v>
+        <v>516</v>
+      </c>
+      <c r="AU56" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="AV56" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW56" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="AX56" s="3" t="s">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="AY56" s="3" t="s">
-        <v>87</v>
+        <v>519</v>
       </c>
       <c r="AZ56" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA56" s="1">
-        <v>201.0</v>
+        <v>520</v>
+      </c>
+      <c r="BA56" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB56" s="11" t="s">
-        <v>81</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="4">
-        <v>46019.0</v>
+        <v>46020.0</v>
       </c>
       <c r="F57" s="5">
         <v>5.0</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="H57" s="4">
-        <v>45775.0</v>
+        <v>45776.0</v>
       </c>
       <c r="I57" s="7">
         <v>35.5</v>
@@ -10482,7 +10510,7 @@
         <v>2605.0</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
@@ -10507,7 +10535,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>64</v>
@@ -10519,13 +10547,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="Z57" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>68</v>
@@ -10540,13 +10568,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF57" s="3" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="AG57" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="AI57" s="3" t="s">
         <v>57</v>
@@ -10570,10 +10598,10 @@
         <v>74</v>
       </c>
       <c r="AP57" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="AQ57" s="20" t="s">
-        <v>477</v>
+        <v>528</v>
+      </c>
+      <c r="AQ57" s="10" t="s">
+        <v>529</v>
       </c>
       <c r="AR57" s="3" t="s">
         <v>57</v>
@@ -10597,340 +10625,16 @@
         <v>78</v>
       </c>
       <c r="AY57" s="3" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="AZ57" s="10" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="BA57" s="10">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="BB57" s="11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q58" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="S58" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="T58" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AE58" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF58" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG58" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH58" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="AI58" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ58" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK58" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL58" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="AM58" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AN58" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO58" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="AP58" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AQ58" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AR58" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AS58" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="AT58" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="AU58" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV58" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AW58" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="AX58" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AY58" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ58" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="BA58" s="10">
-        <v>400.0</v>
-      </c>
-      <c r="BB58" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="4">
-        <v>46020.0</v>
-      </c>
-      <c r="F59" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="H59" s="4">
-        <v>45776.0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>35.5</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="5">
-        <v>2605.0</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="R59" s="5">
-        <v>1502.0</v>
-      </c>
-      <c r="S59" s="5">
-        <v>15067.0</v>
-      </c>
-      <c r="T59" s="5">
-        <v>4.4556678E7</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE59" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF59" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG59" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH59" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AI59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ59" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AK59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL59" s="7">
-        <v>180.0</v>
-      </c>
-      <c r="AM59" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="AN59" s="7">
-        <v>620.0</v>
-      </c>
-      <c r="AO59" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP59" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="AQ59" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="AR59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS59" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="AT59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU59" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="AV59" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AW59" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="AX59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY59" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AZ59" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="BA59" s="10">
-        <v>400.0</v>
-      </c>
-      <c r="BB59" s="21" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -10939,82 +10643,84 @@
     <hyperlink r:id="rId2" ref="AQ2"/>
     <hyperlink r:id="rId3" ref="AZ2"/>
     <hyperlink r:id="rId4" ref="G3"/>
-    <hyperlink r:id="rId5" ref="G5"/>
-    <hyperlink r:id="rId6" ref="AQ5"/>
-    <hyperlink r:id="rId7" ref="AZ5"/>
-    <hyperlink r:id="rId8" ref="G6"/>
-    <hyperlink r:id="rId9" ref="G7"/>
-    <hyperlink r:id="rId10" ref="G8"/>
-    <hyperlink r:id="rId11" ref="AQ8"/>
-    <hyperlink r:id="rId12" ref="AZ8"/>
-    <hyperlink r:id="rId13" ref="G9"/>
-    <hyperlink r:id="rId14" ref="AQ9"/>
-    <hyperlink r:id="rId15" ref="AZ9"/>
-    <hyperlink r:id="rId16" ref="G10"/>
-    <hyperlink r:id="rId17" ref="AQ10"/>
-    <hyperlink r:id="rId18" ref="AZ10"/>
-    <hyperlink r:id="rId19" ref="G11"/>
-    <hyperlink r:id="rId20" ref="AQ11"/>
-    <hyperlink r:id="rId21" ref="AZ11"/>
-    <hyperlink r:id="rId22" ref="G12"/>
-    <hyperlink r:id="rId23" ref="AQ12"/>
-    <hyperlink r:id="rId24" ref="AZ12"/>
-    <hyperlink r:id="rId25" ref="G13"/>
-    <hyperlink r:id="rId26" ref="AQ13"/>
-    <hyperlink r:id="rId27" ref="AZ13"/>
-    <hyperlink r:id="rId28" ref="G14"/>
-    <hyperlink r:id="rId29" ref="AQ14"/>
-    <hyperlink r:id="rId30" ref="AZ14"/>
-    <hyperlink r:id="rId31" ref="G15"/>
-    <hyperlink r:id="rId32" ref="AQ15"/>
-    <hyperlink r:id="rId33" ref="AZ15"/>
-    <hyperlink r:id="rId34" ref="G16"/>
-    <hyperlink r:id="rId35" ref="AQ16"/>
-    <hyperlink r:id="rId36" ref="AZ16"/>
-    <hyperlink r:id="rId37" ref="G17"/>
-    <hyperlink r:id="rId38" ref="AQ17"/>
-    <hyperlink r:id="rId39" ref="AZ17"/>
-    <hyperlink r:id="rId40" ref="G18"/>
-    <hyperlink r:id="rId41" ref="AQ18"/>
-    <hyperlink r:id="rId42" ref="AZ18"/>
-    <hyperlink r:id="rId43" ref="G19"/>
-    <hyperlink r:id="rId44" ref="AQ19"/>
-    <hyperlink r:id="rId45" ref="AZ19"/>
-    <hyperlink r:id="rId46" ref="G20"/>
-    <hyperlink r:id="rId47" ref="AQ20"/>
-    <hyperlink r:id="rId48" ref="AZ20"/>
-    <hyperlink r:id="rId49" ref="G21"/>
-    <hyperlink r:id="rId50" ref="G22"/>
-    <hyperlink r:id="rId51" ref="AQ22"/>
-    <hyperlink r:id="rId52" ref="AZ22"/>
-    <hyperlink r:id="rId53" ref="G23"/>
-    <hyperlink r:id="rId54" ref="AQ23"/>
-    <hyperlink r:id="rId55" ref="AZ23"/>
-    <hyperlink r:id="rId56" ref="G24"/>
-    <hyperlink r:id="rId57" ref="AQ24"/>
-    <hyperlink r:id="rId58" ref="AZ24"/>
-    <hyperlink r:id="rId59" ref="G25"/>
-    <hyperlink r:id="rId60" ref="AQ25"/>
-    <hyperlink r:id="rId61" ref="AZ25"/>
-    <hyperlink r:id="rId62" ref="G26"/>
-    <hyperlink r:id="rId63" ref="G27"/>
-    <hyperlink r:id="rId64" ref="G34"/>
-    <hyperlink r:id="rId65" ref="G36"/>
-    <hyperlink r:id="rId66" ref="G37"/>
-    <hyperlink r:id="rId67" ref="G39"/>
-    <hyperlink r:id="rId68" ref="G41"/>
-    <hyperlink r:id="rId69" ref="G43"/>
-    <hyperlink r:id="rId70" ref="G45"/>
-    <hyperlink r:id="rId71" ref="G47"/>
-    <hyperlink r:id="rId72" ref="G48"/>
-    <hyperlink r:id="rId73" ref="G50"/>
-    <hyperlink r:id="rId74" ref="G52"/>
-    <hyperlink r:id="rId75" ref="G54"/>
-    <hyperlink r:id="rId76" ref="G56"/>
-    <hyperlink r:id="rId77" ref="AQ56"/>
-    <hyperlink r:id="rId78" ref="AQ57"/>
-    <hyperlink r:id="rId79" ref="AQ58"/>
+    <hyperlink r:id="rId5" ref="G4"/>
+    <hyperlink r:id="rId6" ref="AQ4"/>
+    <hyperlink r:id="rId7" ref="AZ4"/>
+    <hyperlink r:id="rId8" ref="G5"/>
+    <hyperlink r:id="rId9" ref="G6"/>
+    <hyperlink r:id="rId10" ref="G7"/>
+    <hyperlink r:id="rId11" ref="AQ7"/>
+    <hyperlink r:id="rId12" ref="AZ7"/>
+    <hyperlink r:id="rId13" ref="G8"/>
+    <hyperlink r:id="rId14" ref="AQ8"/>
+    <hyperlink r:id="rId15" ref="AZ8"/>
+    <hyperlink r:id="rId16" ref="G9"/>
+    <hyperlink r:id="rId17" ref="AQ9"/>
+    <hyperlink r:id="rId18" ref="AZ9"/>
+    <hyperlink r:id="rId19" ref="G10"/>
+    <hyperlink r:id="rId20" ref="AQ10"/>
+    <hyperlink r:id="rId21" ref="AZ10"/>
+    <hyperlink r:id="rId22" ref="G11"/>
+    <hyperlink r:id="rId23" ref="AQ11"/>
+    <hyperlink r:id="rId24" ref="AZ11"/>
+    <hyperlink r:id="rId25" ref="G12"/>
+    <hyperlink r:id="rId26" ref="AQ12"/>
+    <hyperlink r:id="rId27" ref="AZ12"/>
+    <hyperlink r:id="rId28" ref="G13"/>
+    <hyperlink r:id="rId29" ref="AQ13"/>
+    <hyperlink r:id="rId30" ref="AZ13"/>
+    <hyperlink r:id="rId31" ref="G14"/>
+    <hyperlink r:id="rId32" ref="AQ14"/>
+    <hyperlink r:id="rId33" ref="AZ14"/>
+    <hyperlink r:id="rId34" ref="G15"/>
+    <hyperlink r:id="rId35" ref="AQ15"/>
+    <hyperlink r:id="rId36" ref="AZ15"/>
+    <hyperlink r:id="rId37" ref="G16"/>
+    <hyperlink r:id="rId38" ref="AQ16"/>
+    <hyperlink r:id="rId39" ref="AZ16"/>
+    <hyperlink r:id="rId40" ref="G17"/>
+    <hyperlink r:id="rId41" ref="AQ17"/>
+    <hyperlink r:id="rId42" ref="AZ17"/>
+    <hyperlink r:id="rId43" ref="G18"/>
+    <hyperlink r:id="rId44" ref="AQ18"/>
+    <hyperlink r:id="rId45" ref="AZ18"/>
+    <hyperlink r:id="rId46" ref="G19"/>
+    <hyperlink r:id="rId47" ref="AQ19"/>
+    <hyperlink r:id="rId48" ref="AZ19"/>
+    <hyperlink r:id="rId49" ref="G20"/>
+    <hyperlink r:id="rId50" ref="G21"/>
+    <hyperlink r:id="rId51" ref="AQ21"/>
+    <hyperlink r:id="rId52" ref="AZ21"/>
+    <hyperlink r:id="rId53" ref="G22"/>
+    <hyperlink r:id="rId54" ref="AQ22"/>
+    <hyperlink r:id="rId55" ref="AZ22"/>
+    <hyperlink r:id="rId56" ref="G23"/>
+    <hyperlink r:id="rId57" ref="AQ23"/>
+    <hyperlink r:id="rId58" ref="AZ23"/>
+    <hyperlink r:id="rId59" ref="G24"/>
+    <hyperlink r:id="rId60" ref="AQ24"/>
+    <hyperlink r:id="rId61" ref="AZ24"/>
+    <hyperlink r:id="rId62" ref="G25"/>
+    <hyperlink r:id="rId63" ref="G26"/>
+    <hyperlink r:id="rId64" ref="G33"/>
+    <hyperlink r:id="rId65" ref="G34"/>
+    <hyperlink r:id="rId66" ref="G35"/>
+    <hyperlink r:id="rId67" ref="G36"/>
+    <hyperlink r:id="rId68" ref="G38"/>
+    <hyperlink r:id="rId69" ref="G40"/>
+    <hyperlink r:id="rId70" ref="G42"/>
+    <hyperlink r:id="rId71" ref="G44"/>
+    <hyperlink r:id="rId72" ref="G46"/>
+    <hyperlink r:id="rId73" ref="G48"/>
+    <hyperlink r:id="rId74" ref="G50"/>
+    <hyperlink r:id="rId75" ref="G52"/>
+    <hyperlink r:id="rId76" ref="G54"/>
+    <hyperlink r:id="rId77" ref="AQ54"/>
+    <hyperlink r:id="rId78" ref="AZ54"/>
+    <hyperlink r:id="rId79" ref="AQ55"/>
+    <hyperlink r:id="rId80" ref="AZ55"/>
+    <hyperlink r:id="rId81" ref="AQ56"/>
   </hyperlinks>
-  <drawing r:id="rId80"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
--- a/src/testData/archivosExcel/ParcelDeclareRequest_v2.xlsx
+++ b/src/testData/archivosExcel/ParcelDeclareRequest_v2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="530">
   <si>
     <t>idTestCase</t>
   </si>
@@ -311,6 +311,9 @@
     <t>P3</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -353,7 +356,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"countryManufacture","message":"countryManufacture es obligatorio"}]</t>
+    <t>[{"field":"countryManufacture","message":"countryManufacture es obligatorio"}]</t>
   </si>
   <si>
     <t>P4</t>
@@ -369,7 +372,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"currency","message":"currency es obligatorio"}]</t>
+    <t>[{"field":"currency","message":"currency es obligatorio"}]</t>
   </si>
   <si>
     <t>P5</t>
@@ -385,7 +388,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"grossWeight","message":"grossWeight es obligatorio"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+    <t>[{"field":"grossWeight","message":"grossWeight es obligatorio"}]</t>
   </si>
   <si>
     <t>P6</t>
@@ -1012,7 +1015,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.idUbigeo","message":"must not be blank"},{"field":"receiverInfo.email","message":"must not be blank"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.identityNumber","message":"must not be blank"},{"field":"receiverInfo.address","message":"No debe estar vacío"},{"field":"receiverInfo.fullName","message":"must not be blank"},{"field":"receiverInfo.mobilePhone","message":"must not be blank"}]</t>
+    <t>[{"field":"receiverInfo.address","message":"No debe estar vacío"},{"field":"receiverInfo.email","message":"must not be blank"},{"field":"receiverInfo.fullName","message":"must not be blank"},{"field":"receiverInfo.identityNumber","message":"must not be blank"},{"field":"receiverInfo.idUbigeo","message":"must not be blank"},{"field":"receiverInfo.mobilePhone","message":"must not be blank"}]</t>
   </si>
   <si>
     <t>P19</t>
@@ -1227,10 +1230,154 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"itemList[1].brand","message":"brand es obligatorio"},{"field":"itemList[0].brand","message":"brand es obligatorio"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency es obligatorio"},{"field":"itemList[0].currency","message":"currency es obligatorio"},{"field":"itemList[1].descriptionGoods","message":"descriptionGoods es obligatorio"},{"field":"itemList[0].descriptionGoods","message":"descriptionGoods es obligatorio"},{"field":"itemList[1].grossWeight","message":"grossWeight es obligatorio"},{"field":"itemList[0].grossWeight","message":"grossWeight es obligatorio"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber es obligatorio"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber es obligatorio"},{"field":"itemList[1].model","message":"model es obligatorio"},{"field":"itemList[0].model","message":"model es obligatorio"},{"field":"itemList[1].price","message":"price es obligatorio"},{"field":"itemList[0].price","message":"price es obligatorio"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[1].productUrl","message":"productUrl es obligatorio"},{"field":"itemList[0].productUrl","message":"productUrl es obligatorio"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].qty","message":"qty es obligatorio"},{"field":"itemList[0].qty","message":"qty es obligatorio"}]</t>
+    <t>[{"field":"itemList[0].price","message":"price es obligatorio"}]</t>
   </si>
   <si>
     <t>P25</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561236</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC125</t>
+  </si>
+  <si>
+    <t>AWBN056836004</t>
+  </si>
+  <si>
+    <t>R87654323</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Tab P13</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P13</t>
+  </si>
+  <si>
+    <t>PowerCore 20002</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20002</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"}]</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561237</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC126</t>
+  </si>
+  <si>
+    <t>AWBN056836005</t>
+  </si>
+  <si>
+    <t>R87654324</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>Tab P14</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P14</t>
+  </si>
+  <si>
+    <t>PowerCore 20003</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20003</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>0112345678.101101</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price: máximo 16 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>-180.35</t>
+  </si>
+  <si>
+    <t>[{"field": "itemList[0].price","message": "price inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561238</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC127</t>
+  </si>
+  <si>
+    <t>AWBN056836006</t>
+  </si>
+  <si>
+    <t>R87654325</t>
+  </si>
+  <si>
+    <t>Tab P15</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P15</t>
+  </si>
+  <si>
+    <t>PowerCore 20004</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20004</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"}]</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561239</t>
+  </si>
+  <si>
+    <t>17.24354</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC128</t>
+  </si>
+  <si>
+    <t>AWBN056836007</t>
+  </si>
+  <si>
+    <t>R87654326</t>
+  </si>
+  <si>
+    <t>Tab P16</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P16</t>
+  </si>
+  <si>
+    <t>PowerCore 20005</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20005</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561234CHLOG-98XZ561234</t>
   </si>
   <si>
     <r>
@@ -1243,154 +1390,88 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"itemList[0].price","message":"price es obligatorio"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561236</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC125</t>
-  </si>
-  <si>
-    <t>AWBN056836004</t>
-  </si>
-  <si>
-    <t>R87654323</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Tab P13</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P13</t>
-  </si>
-  <si>
-    <t>PowerCore 20002</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20002</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"}]</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561237</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC126</t>
-  </si>
-  <si>
-    <t>AWBN056836005</t>
-  </si>
-  <si>
-    <t>R87654324</t>
-  </si>
-  <si>
-    <t>uno</t>
-  </si>
-  <si>
-    <t>Tab P14</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P14</t>
-  </si>
-  <si>
-    <t>PowerCore 20003</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20003</t>
-  </si>
-  <si>
-    <t>P28</t>
-  </si>
-  <si>
-    <t>0112345678.101101</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price: máximo 16 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P29</t>
-  </si>
-  <si>
-    <t>-180.35</t>
-  </si>
-  <si>
-    <t>[{"field": "itemList[0].price","message": "price inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561238</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC127</t>
-  </si>
-  <si>
-    <t>AWBN056836006</t>
-  </si>
-  <si>
-    <t>R87654325</t>
-  </si>
-  <si>
-    <t>Tab P15</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P15</t>
-  </si>
-  <si>
-    <t>PowerCore 20004</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20004</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"}]</t>
-  </si>
-  <si>
-    <t>P31</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561239</t>
-  </si>
-  <si>
-    <t>17.24354</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC128</t>
-  </si>
-  <si>
-    <t>AWBN056836007</t>
-  </si>
-  <si>
-    <t>R87654326</t>
-  </si>
-  <si>
-    <t>Tab P16</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P16</t>
-  </si>
-  <si>
-    <t>PowerCore 20005</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20005</t>
-  </si>
-  <si>
     <t>P32</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561234CHLOG-98XZ561234</t>
+    <t>CHLOG-98XZ561234CHLOG-98XZ5612356</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC124</t>
+  </si>
+  <si>
+    <t>[{"field": "logisticsCode","message": "logisticsCode: máximo 32 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC123https/m/shop.example.cn/product/ABC123https/m/shop.example.cn/product/extra1234567</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561240</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC123https/m/shop.example.cn/product/ABC123https/m/shop.example.cn/product/extra12345678</t>
+  </si>
+  <si>
+    <t>AWBN056836008</t>
+  </si>
+  <si>
+    <t>R87654327</t>
+  </si>
+  <si>
+    <t>Tab P17</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P17</t>
+  </si>
+  <si>
+    <t>PowerCore 20006</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20006</t>
+  </si>
+  <si>
+    <t>[{"field":"purchaseWebsite","message":"purchaseWebsite: máximo 120 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561241</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC130</t>
+  </si>
+  <si>
+    <t>123412341234123412341234123412341234</t>
+  </si>
+  <si>
+    <t>AWBN056836009</t>
+  </si>
+  <si>
+    <t>R87654328</t>
+  </si>
+  <si>
+    <t>Tab P18</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P18</t>
+  </si>
+  <si>
+    <t>PowerCore 20007</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20007</t>
+  </si>
+  <si>
+    <t>[{"field":"invoiceNumber","message":"invoiceNumber: máximo 32 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P36</t>
   </si>
   <si>
     <r>
@@ -1403,88 +1484,46 @@
     </r>
   </si>
   <si>
-    <t>P33</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561234CHLOG-98XZ5612356</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC124</t>
-  </si>
-  <si>
-    <t>[{"field": "logisticsCode","message": "logisticsCode: máximo 32 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P34</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC123https/m/shop.example.cn/product/ABC123https/m/shop.example.cn/product</t>
-  </si>
-  <si>
-    <t>P35</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561240</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC123https/m/shop.example.cn/product/ABC123https/m/shop.example.cn/product/xyz789extra12345</t>
-  </si>
-  <si>
-    <t>AWBN056836008</t>
-  </si>
-  <si>
-    <t>R87654327</t>
-  </si>
-  <si>
-    <t>Tab P17</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P17</t>
-  </si>
-  <si>
-    <t>PowerCore 20006</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20006</t>
-  </si>
-  <si>
-    <t>[{"field":"purchaseWebsite","message":"purchaseWebsite: máximo 120 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P36</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561241</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC130</t>
-  </si>
-  <si>
-    <t>123412341234123412341234123412341234</t>
-  </si>
-  <si>
-    <t>AWBN056836009</t>
-  </si>
-  <si>
-    <t>R87654328</t>
-  </si>
-  <si>
-    <t>Tab P18</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P18</t>
-  </si>
-  <si>
-    <t>PowerCore 20007</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20007</t>
-  </si>
-  <si>
-    <t>[{"field":"invoiceNumber","message":"invoiceNumber: máximo 32 caracteres"}]</t>
+    <t>12341234123412341234hdsqjfkdkkss</t>
   </si>
   <si>
     <t>P37</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561242</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC131</t>
+  </si>
+  <si>
+    <t>12341234123412341234hdsqjfkdkkssa</t>
+  </si>
+  <si>
+    <t>AWBN056836010</t>
+  </si>
+  <si>
+    <t>CN17</t>
+  </si>
+  <si>
+    <t>R87654329</t>
+  </si>
+  <si>
+    <t>Tab P19</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P19</t>
+  </si>
+  <si>
+    <t>PowerCore 20008</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20008</t>
+  </si>
+  <si>
+    <t>[{"field":"ctnNumber","message":"size must be between 0 and 32"}]</t>
+  </si>
+  <si>
+    <t>P38</t>
   </si>
   <si>
     <r>
@@ -1497,46 +1536,46 @@
     </r>
   </si>
   <si>
-    <t>12341234123412341234hdsqjfkdkkssssss</t>
-  </si>
-  <si>
-    <t>P38</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561242</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC131</t>
-  </si>
-  <si>
-    <t>12341234123412341234123412341234123412341hdsqjfkdkksssssssdsrretr234123412341234123</t>
-  </si>
-  <si>
-    <t>AWBN056836010</t>
-  </si>
-  <si>
-    <t>CN17</t>
-  </si>
-  <si>
-    <t>R87654329</t>
-  </si>
-  <si>
-    <t>Tab P19</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P19</t>
-  </si>
-  <si>
-    <t>PowerCore 20008</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20008</t>
-  </si>
-  <si>
-    <t>[{"field":"ctnNumber","message":"size must be between 0 and 32"}]</t>
+    <t>260526052605hola</t>
   </si>
   <si>
     <t>P39</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561243</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC132</t>
+  </si>
+  <si>
+    <t>AWBN056836011</t>
+  </si>
+  <si>
+    <t>260526052605hola13</t>
+  </si>
+  <si>
+    <t>CN18</t>
+  </si>
+  <si>
+    <t>R87654330</t>
+  </si>
+  <si>
+    <t>Tab P20</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P20</t>
+  </si>
+  <si>
+    <t>PowerCore 20009</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20009</t>
+  </si>
+  <si>
+    <t>[{"field":"insurance","message":"size must be between 0 and 16"}]</t>
+  </si>
+  <si>
+    <t>P40</t>
   </si>
   <si>
     <r>
@@ -1549,46 +1588,46 @@
     </r>
   </si>
   <si>
-    <t>260526052605hola</t>
-  </si>
-  <si>
-    <t>P40</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561243</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC132</t>
-  </si>
-  <si>
-    <t>AWBN056836011</t>
-  </si>
-  <si>
-    <t>260526052605hola13</t>
-  </si>
-  <si>
-    <t>CN18</t>
-  </si>
-  <si>
-    <t>R87654330</t>
-  </si>
-  <si>
-    <t>Tab P20</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P20</t>
-  </si>
-  <si>
-    <t>PowerCore 20009</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20009</t>
-  </si>
-  <si>
-    <t>[{"field":"insurance","message":"size must be between 0 and 16"}]</t>
+    <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los</t>
   </si>
   <si>
     <t>P41</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561244</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC133</t>
+  </si>
+  <si>
+    <t>AWBN056836012</t>
+  </si>
+  <si>
+    <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, Surco</t>
+  </si>
+  <si>
+    <t>CN19</t>
+  </si>
+  <si>
+    <t>R87654331</t>
+  </si>
+  <si>
+    <t>Tab P21</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P21</t>
+  </si>
+  <si>
+    <t>PowerCore 20010</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20010</t>
+  </si>
+  <si>
+    <t>[{"field":"receiverInfo.address","message":"size must be between 0 and 200"}]</t>
+  </si>
+  <si>
+    <t>P42</t>
   </si>
   <si>
     <r>
@@ -1601,46 +1640,46 @@
     </r>
   </si>
   <si>
-    <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los</t>
-  </si>
-  <si>
-    <t>P42</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561244</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC133</t>
-  </si>
-  <si>
-    <t>AWBN056836012</t>
-  </si>
-  <si>
-    <t>Jr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, SurcoJr. Los Pinos 451, Surco</t>
-  </si>
-  <si>
-    <t>CN19</t>
-  </si>
-  <si>
-    <t>R87654331</t>
-  </si>
-  <si>
-    <t>Tab P21</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P21</t>
-  </si>
-  <si>
-    <t>PowerCore 20010</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20010</t>
-  </si>
-  <si>
-    <t>[{"field":"receiverInfo.address","message":"size must be between 0 and 200"}]</t>
+    <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alesss Besada</t>
   </si>
   <si>
     <t>P43</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561245</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC134</t>
+  </si>
+  <si>
+    <t>AWBN056836013</t>
+  </si>
+  <si>
+    <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites Besada</t>
+  </si>
+  <si>
+    <t>CN20</t>
+  </si>
+  <si>
+    <t>R87654332</t>
+  </si>
+  <si>
+    <t>Tab P22</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P22</t>
+  </si>
+  <si>
+    <t>PowerCore 20011</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20011</t>
+  </si>
+  <si>
+    <t>[{"field":"receiverInfo.fullName","message":"size must be between 0 and 100"}]</t>
+  </si>
+  <si>
+    <t>P44</t>
   </si>
   <si>
     <r>
@@ -1653,46 +1692,46 @@
     </r>
   </si>
   <si>
-    <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alesss Besada</t>
-  </si>
-  <si>
-    <t>P44</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561245</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC134</t>
-  </si>
-  <si>
-    <t>AWBN056836013</t>
-  </si>
-  <si>
-    <t>Gabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites BesadaGabriel Alessandro Benites Besada</t>
-  </si>
-  <si>
-    <t>CN20</t>
-  </si>
-  <si>
-    <t>R87654332</t>
-  </si>
-  <si>
-    <t>Tab P22</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P22</t>
-  </si>
-  <si>
-    <t>PowerCore 20011</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20011</t>
-  </si>
-  <si>
-    <t>[{"field":"receiverInfo.fullName","message":"size must be between 0 and 100"}]</t>
+    <t>9876543211234567</t>
   </si>
   <si>
     <t>P45</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561246</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC135</t>
+  </si>
+  <si>
+    <t>AWBN056836014</t>
+  </si>
+  <si>
+    <t>43fdsfdsgfd1___2</t>
+  </si>
+  <si>
+    <t>CN21</t>
+  </si>
+  <si>
+    <t>R87654333</t>
+  </si>
+  <si>
+    <t>Tab P23</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P23</t>
+  </si>
+  <si>
+    <t>PowerCore 20012</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20012</t>
+  </si>
+  <si>
+    <t>[{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"}]</t>
+  </si>
+  <si>
+    <t>P46</t>
   </si>
   <si>
     <r>
@@ -1705,46 +1744,46 @@
     </r>
   </si>
   <si>
-    <t>9876543211234567</t>
-  </si>
-  <si>
-    <t>P46</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561246</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC135</t>
-  </si>
-  <si>
-    <t>AWBN056836014</t>
-  </si>
-  <si>
-    <t>43fdsfdsgfd1___2</t>
-  </si>
-  <si>
-    <t>CN21</t>
-  </si>
-  <si>
-    <t>R87654333</t>
-  </si>
-  <si>
-    <t>Tab P23</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P23</t>
-  </si>
-  <si>
-    <t>PowerCore 20012</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20012</t>
-  </si>
-  <si>
-    <t>[{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"}]</t>
+    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA</t>
   </si>
   <si>
     <t>P47</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561247</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC136</t>
+  </si>
+  <si>
+    <t>AWBN056836015</t>
+  </si>
+  <si>
+    <t>CN22</t>
+  </si>
+  <si>
+    <t>R87654334</t>
+  </si>
+  <si>
+    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLA</t>
+  </si>
+  <si>
+    <t>Tab P24</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P24</t>
+  </si>
+  <si>
+    <t>PowerCore 20013</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20013</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].descriptionGoods","message":"descriptionGoods: máximo 128 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P48</t>
   </si>
   <si>
     <r>
@@ -1757,46 +1796,46 @@
     </r>
   </si>
   <si>
-    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA</t>
-  </si>
-  <si>
-    <t>P48</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561247</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC136</t>
-  </si>
-  <si>
-    <t>AWBN056836015</t>
-  </si>
-  <si>
-    <t>CN22</t>
-  </si>
-  <si>
-    <t>R87654334</t>
-  </si>
-  <si>
-    <t>Es una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLAEs una table increible de 15 pulgadas con la pantalla BLA BLA BLA</t>
-  </si>
-  <si>
-    <t>Tab P24</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P24</t>
-  </si>
-  <si>
-    <t>PowerCore 20013</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20013</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].descriptionGoods","message":"descriptionGoods: máximo 128 caracteres"}]</t>
+    <t>LenovoLenovoLenovoLenovoLenovo32</t>
   </si>
   <si>
     <t>P49</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561248</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC137</t>
+  </si>
+  <si>
+    <t>AWBN056836016</t>
+  </si>
+  <si>
+    <t>CN23</t>
+  </si>
+  <si>
+    <t>R87654335</t>
+  </si>
+  <si>
+    <t>LenovoLenovoLenovoLenovoLenovoLenovo</t>
+  </si>
+  <si>
+    <t>Tab P25</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P25</t>
+  </si>
+  <si>
+    <t>PowerCore 20014</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20014</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].brand","message":"brand: máximo 32 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P50</t>
   </si>
   <si>
     <r>
@@ -1809,46 +1848,43 @@
     </r>
   </si>
   <si>
-    <t>LenovoLenovoLenovoLenovoLenovo32</t>
-  </si>
-  <si>
-    <t>P50</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561248</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC137</t>
-  </si>
-  <si>
-    <t>AWBN056836016</t>
-  </si>
-  <si>
-    <t>CN23</t>
-  </si>
-  <si>
-    <t>R87654335</t>
-  </si>
-  <si>
-    <t>LenovoLenovoLenovoLenovoLenovoLenovo</t>
-  </si>
-  <si>
-    <t>Tab P25</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P25</t>
-  </si>
-  <si>
-    <t>PowerCore 20014</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20014</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].brand","message":"brand: máximo 32 caracteres"}]</t>
+    <t>Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fan</t>
   </si>
   <si>
     <t>P51</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561249</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC138</t>
+  </si>
+  <si>
+    <t>AWBN056836017</t>
+  </si>
+  <si>
+    <t>CN24</t>
+  </si>
+  <si>
+    <t>R87654336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu </t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P26</t>
+  </si>
+  <si>
+    <t>PowerCore 20015</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20015</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].model","message":"model: máximo 128 caracteres"}]</t>
+  </si>
+  <si>
+    <t>P52</t>
   </si>
   <si>
     <r>
@@ -1861,237 +1897,188 @@
     </r>
   </si>
   <si>
-    <t>Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fan</t>
-  </si>
-  <si>
-    <t>P52</t>
-  </si>
-  <si>
-    <t>CHLOG-98XZ561249</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC138</t>
-  </si>
-  <si>
-    <t>AWBN056836017</t>
-  </si>
-  <si>
-    <t>CN24</t>
-  </si>
-  <si>
-    <t>R87654336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu Tab P26 super mega unique fantastic oh mon dieu </t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P26</t>
-  </si>
-  <si>
-    <t>PowerCore 20015</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20015</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].model","message":"model: máximo 128 caracteres"}]</t>
-  </si>
-  <si>
-    <t>P53</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://shop.example.cn/product/ABC123</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P2
 </t>
   </si>
   <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>CHLOG-98XZ561250</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/product/ABC139</t>
+  </si>
+  <si>
+    <t>AWBN056836018</t>
+  </si>
+  <si>
+    <t>CN25</t>
+  </si>
+  <si>
+    <t>R87654337</t>
+  </si>
+  <si>
+    <t>Tab P27</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27</t>
+  </si>
+  <si>
+    <t>PowerCore 20016</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/ANK-20016</t>
+  </si>
+  <si>
+    <t>[{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"}]</t>
+  </si>
+  <si>
     <t>P54</t>
   </si>
   <si>
-    <t>CHLOG-98XZ561250</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/product/ABC139</t>
-  </si>
-  <si>
-    <t>AWBN056836018</t>
-  </si>
-  <si>
-    <t>CN25</t>
-  </si>
-  <si>
-    <t>R87654337</t>
-  </si>
-  <si>
-    <t>Tab P27</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27</t>
-  </si>
-  <si>
-    <t>PowerCore 20016</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/ANK-20016</t>
-  </si>
-  <si>
-    <t>[{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"}]</t>
+    <t>CH&amp;</t>
+  </si>
+  <si>
+    <t>CHLOG-9&amp;8XZ561250</t>
+  </si>
+  <si>
+    <t>U&amp;SD</t>
+  </si>
+  <si>
+    <t>18.1&amp;20</t>
+  </si>
+  <si>
+    <t>5&amp;</t>
+  </si>
+  <si>
+    <t>https://shop.exampl&amp;e.cn/product/ABC139</t>
+  </si>
+  <si>
+    <t>35&amp;,5</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>26&amp;05</t>
+  </si>
+  <si>
+    <t>AWBN056&amp;836018</t>
+  </si>
+  <si>
+    <t>Jr. Los Pin&amp;os 451, Surco</t>
+  </si>
+  <si>
+    <t>recep@ejem&amp;plo.pe</t>
+  </si>
+  <si>
+    <t>Marí&amp;v&amp;a López</t>
+  </si>
+  <si>
+    <t>98765&amp;4321</t>
+  </si>
+  <si>
+    <t>1&amp;502</t>
+  </si>
+  <si>
+    <t>1&amp;5067</t>
+  </si>
+  <si>
+    <t>4455&amp;6678</t>
+  </si>
+  <si>
+    <t>94 Nansh&amp;an Ave, Shenzhen</t>
+  </si>
+  <si>
+    <t>warehouse@&amp;&amp;export.cn</t>
+  </si>
+  <si>
+    <t>Chen Li&amp;&amp;</t>
+  </si>
+  <si>
+    <t>136000&amp;&amp;00000</t>
+  </si>
+  <si>
+    <t>CN&amp;&amp;09</t>
+  </si>
+  <si>
+    <t>51&amp;&amp;8054</t>
+  </si>
+  <si>
+    <t>E1234&amp;&amp;5684</t>
+  </si>
+  <si>
+    <t>No. 12, Chaoy&amp;&amp;ang Rd, Beijing</t>
+  </si>
+  <si>
+    <t>returns@ex&amp;port.cn</t>
+  </si>
+  <si>
+    <t>Wang&amp;&amp; Yu</t>
+  </si>
+  <si>
+    <t>139888&amp;&amp;87777</t>
+  </si>
+  <si>
+    <t>CN&amp;&amp;25</t>
+  </si>
+  <si>
+    <t>10&amp;0101</t>
+  </si>
+  <si>
+    <t>R87654&amp;&amp;337</t>
+  </si>
+  <si>
+    <t>USD&amp;&amp;</t>
+  </si>
+  <si>
+    <t>1&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Tablet Android 10.1 inch&amp;&amp;</t>
+  </si>
+  <si>
+    <t>180&amp;</t>
+  </si>
+  <si>
+    <t>3&amp;</t>
+  </si>
+  <si>
+    <t>620&amp;</t>
+  </si>
+  <si>
+    <t>Lenovo&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Tab P27&amp;&amp;</t>
+  </si>
+  <si>
+    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>2&amp;&amp;</t>
+  </si>
+  <si>
+    <t>Portable Power Ban&amp;&amp;k 20000mAh</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>PowerCor&amp;&amp;&amp;e 20016</t>
+  </si>
+  <si>
+    <t>https://shop.&amp;&amp;&amp;&amp;example.cn/item/ANK-20016</t>
+  </si>
+  <si>
+    <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[0].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"packageCount","message":"packageCount inválido (solo dígitos)"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"shipping","message":"shipping inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"},{"field":"valueAddedTax","message":"valueAddedTax inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
   </si>
   <si>
     <t>P55</t>
-  </si>
-  <si>
-    <t>CH&amp;</t>
-  </si>
-  <si>
-    <t>CHLOG-9&amp;8XZ561250</t>
-  </si>
-  <si>
-    <t>U&amp;SD</t>
-  </si>
-  <si>
-    <t>18.1&amp;20</t>
-  </si>
-  <si>
-    <t>5&amp;</t>
-  </si>
-  <si>
-    <t>https://shop.exampl&amp;e.cn/product/ABC139</t>
-  </si>
-  <si>
-    <t>35&amp;,5</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>26&amp;05</t>
-  </si>
-  <si>
-    <t>AWBN056&amp;836018</t>
-  </si>
-  <si>
-    <t>Jr. Los Pin&amp;os 451, Surco</t>
-  </si>
-  <si>
-    <t>recep@ejem&amp;plo.pe</t>
-  </si>
-  <si>
-    <t>Marí&amp;v&amp;a López</t>
-  </si>
-  <si>
-    <t>98765&amp;4321</t>
-  </si>
-  <si>
-    <t>1&amp;502</t>
-  </si>
-  <si>
-    <t>1&amp;5067</t>
-  </si>
-  <si>
-    <t>4455&amp;6678</t>
-  </si>
-  <si>
-    <t>94 Nansh&amp;an Ave, Shenzhen</t>
-  </si>
-  <si>
-    <t>warehouse@&amp;&amp;export.cn</t>
-  </si>
-  <si>
-    <t>Chen Li&amp;&amp;</t>
-  </si>
-  <si>
-    <t>136000&amp;&amp;00000</t>
-  </si>
-  <si>
-    <t>CN&amp;&amp;09</t>
-  </si>
-  <si>
-    <t>51&amp;&amp;8054</t>
-  </si>
-  <si>
-    <t>E1234&amp;&amp;5684</t>
-  </si>
-  <si>
-    <t>No. 12, Chaoy&amp;&amp;ang Rd, Beijing</t>
-  </si>
-  <si>
-    <t>returns@ex&amp;port.cn</t>
-  </si>
-  <si>
-    <t>Wang&amp;&amp; Yu</t>
-  </si>
-  <si>
-    <t>139888&amp;&amp;87777</t>
-  </si>
-  <si>
-    <t>CN&amp;&amp;25</t>
-  </si>
-  <si>
-    <t>10&amp;0101</t>
-  </si>
-  <si>
-    <t>R87654&amp;&amp;337</t>
-  </si>
-  <si>
-    <t>USD&amp;&amp;</t>
-  </si>
-  <si>
-    <t>1&amp;&amp;</t>
-  </si>
-  <si>
-    <t>Tablet Android 10.1 inch&amp;&amp;</t>
-  </si>
-  <si>
-    <t>180&amp;</t>
-  </si>
-  <si>
-    <t>3&amp;</t>
-  </si>
-  <si>
-    <t>620&amp;</t>
-  </si>
-  <si>
-    <t>Lenovo&amp;&amp;</t>
-  </si>
-  <si>
-    <t>Tab P27&amp;&amp;</t>
-  </si>
-  <si>
-    <t>https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27https://shop.example.cn/item/TA-P27&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>2&amp;&amp;</t>
-  </si>
-  <si>
-    <t>Portable Power Ban&amp;&amp;k 20000mAh</t>
-  </si>
-  <si>
-    <t>&amp;&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>PowerCor&amp;&amp;&amp;e 20016</t>
-  </si>
-  <si>
-    <t>https://shop.&amp;&amp;&amp;&amp;example.cn/item/ANK-20016</t>
-  </si>
-  <si>
-    <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[0].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"packageCount","message":"packageCount inválido (solo dígitos)"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"shipping","message":"shipping inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"},{"field":"valueAddedTax","message":"valueAddedTax inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
-  </si>
-  <si>
-    <t>P56</t>
   </si>
   <si>
     <t>CHLOG-98XZ561251</t>
@@ -2472,14 +2459,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.0"/>
     <col customWidth="1" min="2" max="2" width="19.5"/>
     <col customWidth="1" min="3" max="3" width="18.88"/>
-    <col customWidth="1" min="7" max="7" width="16.13"/>
+    <col customWidth="1" min="7" max="7" width="102.13"/>
     <col customWidth="1" min="8" max="8" width="16.0"/>
     <col customWidth="1" min="9" max="9" width="15.75"/>
     <col customWidth="1" min="10" max="11" width="13.13"/>
@@ -2963,7 +2953,9 @@
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
@@ -2977,13 +2969,13 @@
         <v>5.0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="4">
         <v>45760.0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="5">
@@ -3015,7 +3007,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>64</v>
@@ -3025,13 +3017,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z4" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -3065,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AR4" s="3" t="s">
         <v>57</v>
@@ -3092,18 +3084,18 @@
         <v>79</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BA4" s="1">
         <v>400.0</v>
       </c>
       <c r="BB4" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>55</v>
@@ -3111,7 +3103,9 @@
       <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="4">
         <v>45999.0</v>
       </c>
@@ -3119,7 +3113,7 @@
         <v>5.0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4">
         <v>45759.0</v>
@@ -3228,12 +3222,12 @@
         <v>400.0</v>
       </c>
       <c r="BB5" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>55</v>
@@ -3244,12 +3238,14 @@
       <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="F6" s="5">
         <v>5.0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" s="4">
         <v>45759.0</v>
@@ -3358,15 +3354,15 @@
         <v>400.0</v>
       </c>
       <c r="BB6" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>56</v>
@@ -3381,20 +3377,20 @@
         <v>5.0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" s="4">
         <v>45761.0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="5">
         <v>2605.0</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
@@ -3419,7 +3415,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>64</v>
@@ -3429,13 +3425,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z7" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
@@ -3469,7 +3465,7 @@
         <v>75</v>
       </c>
       <c r="AQ7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AR7" s="3" t="s">
         <v>57</v>
@@ -3496,21 +3492,21 @@
         <v>79</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BA7" s="1">
         <v>400.0</v>
       </c>
       <c r="BB7" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>56</v>
@@ -3525,20 +3521,20 @@
         <v>5.0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="4">
         <v>45762.0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="5">
         <v>2605.0</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
@@ -3563,7 +3559,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>64</v>
@@ -3573,13 +3569,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
@@ -3613,7 +3609,7 @@
         <v>75</v>
       </c>
       <c r="AQ8" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR8" s="3" t="s">
         <v>57</v>
@@ -3640,24 +3636,24 @@
         <v>79</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BA8" s="1">
         <v>400.0</v>
       </c>
       <c r="BB8" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>57</v>
@@ -3669,20 +3665,20 @@
         <v>5.0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9" s="4">
         <v>45763.0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="5">
         <v>2605.0</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -3707,7 +3703,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>64</v>
@@ -3717,13 +3713,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z9" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -3757,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AR9" s="3" t="s">
         <v>57</v>
@@ -3784,18 +3780,18 @@
         <v>79</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BA9" s="1">
         <v>400.0</v>
       </c>
       <c r="BB9" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>55</v>
@@ -3813,20 +3809,20 @@
         <v>5.0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H10" s="4">
         <v>45764.0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="5">
         <v>2605.0</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
@@ -3851,7 +3847,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>64</v>
@@ -3861,13 +3857,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z10" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -3901,7 +3897,7 @@
         <v>75</v>
       </c>
       <c r="AQ10" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AR10" s="3" t="s">
         <v>57</v>
@@ -3928,18 +3924,18 @@
         <v>79</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BA10" s="1">
         <v>400.0</v>
       </c>
       <c r="BB10" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>55</v>
@@ -3951,26 +3947,26 @@
         <v>57</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F11" s="5">
         <v>5.0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H11" s="4">
         <v>45765.0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5">
         <v>2605.0</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
@@ -3995,7 +3991,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>64</v>
@@ -4011,7 +4007,7 @@
         <v>518054.0</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -4045,7 +4041,7 @@
         <v>75</v>
       </c>
       <c r="AQ11" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AR11" s="3" t="s">
         <v>57</v>
@@ -4072,49 +4068,49 @@
         <v>79</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BA11" s="1">
         <v>400.0</v>
       </c>
       <c r="BB11" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" s="5">
         <v>5.0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H12" s="4">
         <v>45765.0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="5">
         <v>2605.0</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
@@ -4139,7 +4135,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>64</v>
@@ -4155,7 +4151,7 @@
         <v>518054.0</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -4189,7 +4185,7 @@
         <v>75</v>
       </c>
       <c r="AQ12" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR12" s="3" t="s">
         <v>57</v>
@@ -4216,18 +4212,18 @@
         <v>79</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BA12" s="1">
         <v>400.0</v>
       </c>
       <c r="BB12" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>55</v>
@@ -4245,20 +4241,20 @@
         <v>5.0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H13" s="4">
         <v>45766.0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="5">
         <v>2605.0</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
@@ -4283,7 +4279,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>64</v>
@@ -4293,13 +4289,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z13" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -4333,7 +4329,7 @@
         <v>75</v>
       </c>
       <c r="AQ13" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AR13" s="3" t="s">
         <v>57</v>
@@ -4360,21 +4356,21 @@
         <v>79</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BA13" s="1">
         <v>400.0</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>56</v>
@@ -4389,20 +4385,20 @@
         <v>5.0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H14" s="14">
         <v>1.0629258E7</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="5">
         <v>2605.0</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
@@ -4427,7 +4423,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>64</v>
@@ -4437,13 +4433,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z14" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
@@ -4477,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AR14" s="3" t="s">
         <v>57</v>
@@ -4504,21 +4500,21 @@
         <v>79</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA14" s="1">
         <v>400.0</v>
       </c>
       <c r="BB14" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>56</v>
@@ -4533,20 +4529,20 @@
         <v>5.0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="5">
         <v>2605.0</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
@@ -4571,7 +4567,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>64</v>
@@ -4581,13 +4577,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z15" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
@@ -4621,7 +4617,7 @@
         <v>75</v>
       </c>
       <c r="AQ15" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR15" s="3" t="s">
         <v>57</v>
@@ -4648,21 +4644,21 @@
         <v>79</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BA15" s="1">
         <v>400.0</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>56</v>
@@ -4677,20 +4673,20 @@
         <v>5.0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H16" s="4">
         <v>45766.0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="5">
         <v>2605.0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
@@ -4715,7 +4711,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V16" s="3" t="s">
         <v>64</v>
@@ -4725,13 +4721,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z16" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
@@ -4765,7 +4761,7 @@
         <v>75</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AR16" s="3" t="s">
         <v>57</v>
@@ -4792,21 +4788,21 @@
         <v>79</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BA16" s="1">
         <v>400.0</v>
       </c>
       <c r="BB16" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>56</v>
@@ -4818,23 +4814,23 @@
         <v>46006.0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H17" s="4">
         <v>45766.0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5">
         <v>2605.0</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
@@ -4859,7 +4855,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>64</v>
@@ -4869,13 +4865,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z17" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
@@ -4909,7 +4905,7 @@
         <v>75</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AR17" s="3" t="s">
         <v>57</v>
@@ -4936,21 +4932,21 @@
         <v>79</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BA17" s="1">
         <v>400.0</v>
       </c>
       <c r="BB17" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>56</v>
@@ -4965,20 +4961,20 @@
         <v>-15.0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H18" s="4">
         <v>45766.0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="5">
         <v>2605.0</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
@@ -5003,7 +4999,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>64</v>
@@ -5013,13 +5009,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z18" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
@@ -5053,7 +5049,7 @@
         <v>75</v>
       </c>
       <c r="AQ18" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AR18" s="3" t="s">
         <v>57</v>
@@ -5080,18 +5076,18 @@
         <v>79</v>
       </c>
       <c r="AZ18" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BA18" s="1">
         <v>400.0</v>
       </c>
       <c r="BB18" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>55</v>
@@ -5109,7 +5105,7 @@
         <v>5.0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H19" s="4">
         <v>45759.0</v>
@@ -5122,18 +5118,32 @@
         <v>2605.0</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="N19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="U19" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>64</v>
@@ -5143,13 +5153,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z19" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
@@ -5183,7 +5193,7 @@
         <v>75</v>
       </c>
       <c r="AQ19" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AR19" s="3" t="s">
         <v>57</v>
@@ -5210,18 +5220,18 @@
         <v>79</v>
       </c>
       <c r="AZ19" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BA19" s="1">
         <v>400.0</v>
       </c>
       <c r="BB19" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
@@ -5239,7 +5249,7 @@
         <v>5.0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H20" s="4">
         <v>45759.0</v>
@@ -5261,7 +5271,9 @@
       <c r="O20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="Q20" s="5">
         <v>9.87654321E8</v>
       </c>
@@ -5346,12 +5358,12 @@
         <v>400.0</v>
       </c>
       <c r="BB20" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -5369,7 +5381,7 @@
         <v>5.0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H21" s="4">
         <v>45759.0</v>
@@ -5382,14 +5394,14 @@
         <v>2605.0</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>62</v>
@@ -5407,7 +5419,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>64</v>
@@ -5417,13 +5429,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z21" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
@@ -5457,7 +5469,7 @@
         <v>75</v>
       </c>
       <c r="AQ21" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AR21" s="3" t="s">
         <v>57</v>
@@ -5484,18 +5496,18 @@
         <v>79</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BA21" s="1">
         <v>400.0</v>
       </c>
       <c r="BB21" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>55</v>
@@ -5513,7 +5525,7 @@
         <v>5.0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" s="4">
         <v>45759.0</v>
@@ -5526,7 +5538,7 @@
         <v>2605.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
@@ -5539,7 +5551,7 @@
         <v>62</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R22" s="5">
         <v>1502.0</v>
@@ -5551,7 +5563,7 @@
         <v>4.4556678E7</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>64</v>
@@ -5561,13 +5573,13 @@
         <v>1.36E10</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z22" s="3">
         <v>518054.0</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -5601,7 +5613,7 @@
         <v>75</v>
       </c>
       <c r="AQ22" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AR22" s="3" t="s">
         <v>57</v>
@@ -5628,18 +5640,18 @@
         <v>79</v>
       </c>
       <c r="AZ22" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BA22" s="1">
         <v>400.0</v>
       </c>
       <c r="BB22" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>55</v>
@@ -5657,7 +5669,7 @@
         <v>5.0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H23" s="4">
         <v>45759.0</v>
@@ -5670,7 +5682,7 @@
         <v>2605.0</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
@@ -5692,7 +5704,7 @@
         <v>15067.0</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
@@ -5733,7 +5745,7 @@
         <v>75</v>
       </c>
       <c r="AQ23" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AR23" s="3" t="s">
         <v>57</v>
@@ -5760,18 +5772,18 @@
         <v>79</v>
       </c>
       <c r="AZ23" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA23" s="1">
         <v>400.0</v>
       </c>
       <c r="BB23" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>55</v>
@@ -5789,7 +5801,7 @@
         <v>5.0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H24" s="4">
         <v>45759.0</v>
@@ -5802,7 +5814,7 @@
         <v>2605.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -5877,7 +5889,7 @@
         <v>75</v>
       </c>
       <c r="AQ24" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AR24" s="3" t="s">
         <v>57</v>
@@ -5904,18 +5916,18 @@
         <v>79</v>
       </c>
       <c r="AZ24" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BA24" s="1">
         <v>400.0</v>
       </c>
       <c r="BB24" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>55</v>
@@ -5933,7 +5945,7 @@
         <v>5.0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H25" s="4">
         <v>45759.0</v>
@@ -5984,55 +5996,91 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="10"/>
+      <c r="AI25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="AN25" s="7">
+        <v>620.0</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="AT25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU25" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AW25" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="AX25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ25" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="BA25" s="1">
         <v>400.0</v>
       </c>
       <c r="BB25" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="4">
-        <v>45999.0</v>
+        <v>46005.0</v>
       </c>
       <c r="F26" s="5">
         <v>5.0</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>262</v>
+      <c r="G26" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="H26" s="4">
-        <v>45759.0</v>
+        <v>45761.0</v>
       </c>
       <c r="I26" s="7">
         <v>35.5</v>
@@ -6042,7 +6090,7 @@
         <v>2605.0</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
@@ -6066,30 +6114,46 @@
       <c r="T26" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="AI26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AK26" s="16" t="s">
+      <c r="AJ26" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL26" s="7"/>
+      <c r="AL26" s="7">
+        <v>180.0</v>
+      </c>
       <c r="AM26" s="5">
         <v>3.0</v>
       </c>
@@ -6100,10 +6164,10 @@
         <v>74</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="AQ26" s="10" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="AR26" s="3" t="s">
         <v>57</v>
@@ -6127,42 +6191,42 @@
         <v>78</v>
       </c>
       <c r="AY26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ26" s="11" t="s">
-        <v>88</v>
+        <v>270</v>
+      </c>
+      <c r="AZ26" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="BA26" s="1">
         <v>400.0</v>
       </c>
       <c r="BB26" s="12" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="4">
-        <v>46005.0</v>
+        <v>46006.0</v>
       </c>
       <c r="F27" s="5">
         <v>5.0</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H27" s="4">
-        <v>45761.0</v>
+        <v>45762.0</v>
       </c>
       <c r="I27" s="7">
         <v>35.5</v>
@@ -6172,7 +6236,7 @@
         <v>2605.0</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
@@ -6216,19 +6280,19 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="AG27" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AI27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK27" s="3" t="s">
         <v>73</v>
@@ -6246,10 +6310,10 @@
         <v>74</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="AQ27" s="10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="AR27" s="3" t="s">
         <v>57</v>
@@ -6273,27 +6337,27 @@
         <v>78</v>
       </c>
       <c r="AY27" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AZ27" s="10" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="BA27" s="1">
         <v>400.0</v>
       </c>
       <c r="BB27" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>57</v>
@@ -6305,7 +6369,7 @@
         <v>5.0</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H28" s="4">
         <v>45762.0</v>
@@ -6318,7 +6382,7 @@
         <v>2605.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
@@ -6362,25 +6426,25 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG28" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AI28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ28" s="5" t="s">
-        <v>280</v>
+      <c r="AJ28" s="5">
+        <v>1.0</v>
       </c>
       <c r="AK28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL28" s="7">
-        <v>180.0</v>
+      <c r="AL28" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="AM28" s="5">
         <v>3.0</v>
@@ -6392,10 +6456,10 @@
         <v>74</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AR28" s="3" t="s">
         <v>57</v>
@@ -6419,27 +6483,27 @@
         <v>78</v>
       </c>
       <c r="AY28" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ28" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BA28" s="1">
         <v>400.0</v>
       </c>
       <c r="BB28" s="12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>57</v>
@@ -6451,7 +6515,7 @@
         <v>5.0</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H29" s="4">
         <v>45762.0</v>
@@ -6464,7 +6528,7 @@
         <v>2605.0</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
@@ -6508,13 +6572,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG29" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AI29" s="3" t="s">
         <v>57</v>
@@ -6526,7 +6590,7 @@
         <v>73</v>
       </c>
       <c r="AL29" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM29" s="5">
         <v>3.0</v>
@@ -6538,10 +6602,10 @@
         <v>74</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AQ29" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AR29" s="3" t="s">
         <v>57</v>
@@ -6565,42 +6629,42 @@
         <v>78</v>
       </c>
       <c r="AY29" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ29" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BA29" s="1">
         <v>400.0</v>
       </c>
       <c r="BB29" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="F30" s="5">
         <v>5.0</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="H30" s="4">
-        <v>45762.0</v>
+        <v>45763.0</v>
       </c>
       <c r="I30" s="7">
         <v>35.5</v>
@@ -6610,7 +6674,7 @@
         <v>2605.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
@@ -6654,13 +6718,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AG30" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AI30" s="3" t="s">
         <v>57</v>
@@ -6671,11 +6735,11 @@
       <c r="AK30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AL30" s="13" t="s">
-        <v>289</v>
+      <c r="AL30" s="7">
+        <v>180.0</v>
       </c>
       <c r="AM30" s="5">
-        <v>3.0</v>
+        <v>3123.0</v>
       </c>
       <c r="AN30" s="7">
         <v>620.0</v>
@@ -6684,10 +6748,10 @@
         <v>74</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AQ30" s="10" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="AR30" s="3" t="s">
         <v>57</v>
@@ -6711,42 +6775,42 @@
         <v>78</v>
       </c>
       <c r="AY30" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AZ30" s="10" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="BA30" s="1">
         <v>400.0</v>
       </c>
       <c r="BB30" s="12" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="4">
-        <v>46007.0</v>
+      <c r="E31" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="F31" s="5">
         <v>5.0</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H31" s="4">
-        <v>45763.0</v>
+        <v>45764.0</v>
       </c>
       <c r="I31" s="7">
         <v>35.5</v>
@@ -6756,7 +6820,7 @@
         <v>2605.0</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
@@ -6800,13 +6864,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AG31" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AI31" s="3" t="s">
         <v>57</v>
@@ -6821,7 +6885,7 @@
         <v>180.0</v>
       </c>
       <c r="AM31" s="5">
-        <v>3123.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN31" s="7">
         <v>620.0</v>
@@ -6830,10 +6894,10 @@
         <v>74</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AR31" s="3" t="s">
         <v>57</v>
@@ -6857,42 +6921,42 @@
         <v>78</v>
       </c>
       <c r="AY31" s="3" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AZ31" s="10" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="BA31" s="1">
         <v>400.0</v>
       </c>
       <c r="BB31" s="12" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>303</v>
+      <c r="E32" s="4">
+        <v>45999.0</v>
       </c>
       <c r="F32" s="5">
         <v>5.0</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>304</v>
+      <c r="G32" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="H32" s="4">
-        <v>45764.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I32" s="7">
         <v>35.5</v>
@@ -6902,7 +6966,7 @@
         <v>2605.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
@@ -6926,34 +6990,20 @@
       <c r="T32" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF32" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG32" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH32" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
       <c r="AI32" s="3" t="s">
         <v>57</v>
       </c>
@@ -6976,10 +7026,10 @@
         <v>74</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="AR32" s="3" t="s">
         <v>57</v>
@@ -7003,42 +7053,42 @@
         <v>78</v>
       </c>
       <c r="AY32" s="3" t="s">
-        <v>309</v>
+        <v>87</v>
       </c>
       <c r="AZ32" s="10" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="BA32" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB32" s="12" t="s">
-        <v>155</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB32" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="4">
-        <v>45999.0</v>
+        <v>46000.0</v>
       </c>
       <c r="F33" s="5">
         <v>5.0</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>313</v>
+      <c r="G33" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="H33" s="4">
-        <v>45759.0</v>
+        <v>45760.0</v>
       </c>
       <c r="I33" s="7">
         <v>35.5</v>
@@ -7048,7 +7098,7 @@
         <v>2605.0</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
@@ -7108,10 +7158,10 @@
         <v>74</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="AR33" s="3" t="s">
         <v>57</v>
@@ -7135,42 +7185,42 @@
         <v>78</v>
       </c>
       <c r="AY33" s="3" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="AZ33" s="10" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="BA33" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="BB33" s="11" t="s">
-        <v>81</v>
+        <v>400.0</v>
+      </c>
+      <c r="BB33" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="4">
-        <v>46000.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F34" s="5">
         <v>5.0</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H34" s="4">
-        <v>45760.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I34" s="7">
         <v>35.5</v>
@@ -7180,7 +7230,7 @@
         <v>2605.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -7240,10 +7290,10 @@
         <v>74</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="AQ34" s="10" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="AR34" s="3" t="s">
         <v>57</v>
@@ -7267,16 +7317,16 @@
         <v>78</v>
       </c>
       <c r="AY34" s="3" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="AZ34" s="10" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="BA34" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB34" s="12" t="s">
-        <v>317</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB34" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -7287,22 +7337,22 @@
         <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="4">
-        <v>45999.0</v>
+        <v>46009.0</v>
       </c>
       <c r="F35" s="5">
         <v>5.0</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H35" s="4">
-        <v>45759.0</v>
+        <v>45765.0</v>
       </c>
       <c r="I35" s="7">
         <v>35.5</v>
@@ -7312,7 +7362,7 @@
         <v>2605.0</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -7336,20 +7386,34 @@
       <c r="T35" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="AI35" s="3" t="s">
         <v>57</v>
       </c>
@@ -7372,10 +7436,10 @@
         <v>74</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ35" s="10" t="s">
-        <v>86</v>
+        <v>323</v>
+      </c>
+      <c r="AQ35" s="17" t="s">
+        <v>324</v>
       </c>
       <c r="AR35" s="3" t="s">
         <v>57</v>
@@ -7399,52 +7463,52 @@
         <v>78</v>
       </c>
       <c r="AY35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ35" s="10" t="s">
-        <v>88</v>
+        <v>325</v>
+      </c>
+      <c r="AZ35" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="BA35" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="BB35" s="11" t="s">
-        <v>81</v>
+        <v>400.0</v>
+      </c>
+      <c r="BB35" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="24.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="4">
-        <v>46009.0</v>
+        <v>46010.0</v>
       </c>
       <c r="F36" s="5">
         <v>5.0</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>322</v>
+      <c r="G36" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="H36" s="4">
-        <v>45765.0</v>
+        <v>45766.0</v>
       </c>
       <c r="I36" s="7">
         <v>35.5</v>
       </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="5">
-        <v>2605.0</v>
+      <c r="K36" s="18" t="s">
+        <v>331</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
@@ -7488,13 +7552,13 @@
         <v>1.3988887777E10</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AG36" s="3">
         <v>100101.0</v>
       </c>
       <c r="AH36" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AI36" s="3" t="s">
         <v>57</v>
@@ -7518,10 +7582,10 @@
         <v>74</v>
       </c>
       <c r="AP36" s="3" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AQ36" s="10" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AR36" s="3" t="s">
         <v>57</v>
@@ -7545,52 +7609,54 @@
         <v>78</v>
       </c>
       <c r="AY36" s="3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AZ36" s="10" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="BA36" s="1">
         <v>400.0</v>
       </c>
       <c r="BB36" s="12" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" ht="24.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="4">
-        <v>46010.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F37" s="5">
         <v>5.0</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>332</v>
+      <c r="G37" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="H37" s="4">
-        <v>45766.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I37" s="7">
         <v>35.5</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="18" t="s">
-        <v>333</v>
+      <c r="J37" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" s="5">
+        <v>2605.0</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
@@ -7614,34 +7680,20 @@
       <c r="T37" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF37" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH37" s="3" t="s">
-        <v>335</v>
-      </c>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
       <c r="AI37" s="3" t="s">
         <v>57</v>
       </c>
@@ -7664,10 +7716,10 @@
         <v>74</v>
       </c>
       <c r="AP37" s="3" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="AQ37" s="10" t="s">
-        <v>337</v>
+        <v>86</v>
       </c>
       <c r="AR37" s="3" t="s">
         <v>57</v>
@@ -7691,54 +7743,54 @@
         <v>78</v>
       </c>
       <c r="AY37" s="3" t="s">
-        <v>338</v>
+        <v>87</v>
       </c>
       <c r="AZ37" s="10" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="BA37" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB37" s="12" t="s">
-        <v>340</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB37" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
+    <row r="38" ht="21.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="4">
-        <v>45999.0</v>
+        <v>46011.0</v>
       </c>
       <c r="F38" s="5">
         <v>5.0</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>342</v>
+      <c r="G38" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="H38" s="4">
-        <v>45759.0</v>
+        <v>45767.0</v>
       </c>
       <c r="I38" s="7">
         <v>35.5</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>343</v>
+      <c r="J38" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="K38" s="5">
         <v>2605.0</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>84</v>
+        <v>346</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="s">
@@ -7762,20 +7814,34 @@
       <c r="T38" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="AI38" s="3" t="s">
         <v>57</v>
       </c>
@@ -7798,10 +7864,10 @@
         <v>74</v>
       </c>
       <c r="AP38" s="3" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
       <c r="AQ38" s="10" t="s">
-        <v>86</v>
+        <v>350</v>
       </c>
       <c r="AR38" s="3" t="s">
         <v>57</v>
@@ -7825,56 +7891,56 @@
         <v>78</v>
       </c>
       <c r="AY38" s="3" t="s">
-        <v>87</v>
+        <v>351</v>
       </c>
       <c r="AZ38" s="10" t="s">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="BA38" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="BB38" s="11" t="s">
-        <v>81</v>
+        <v>400.0</v>
+      </c>
+      <c r="BB38" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="39" ht="21.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="4">
-        <v>46011.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F39" s="5">
         <v>5.0</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>346</v>
+      <c r="G39" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="H39" s="4">
-        <v>45767.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I39" s="7">
         <v>35.5</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>347</v>
-      </c>
+      <c r="J39" s="8"/>
       <c r="K39" s="5">
         <v>2605.0</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="M39" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="N39" s="3" t="s">
         <v>60</v>
       </c>
@@ -7896,34 +7962,20 @@
       <c r="T39" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE39" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF39" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG39" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH39" s="3" t="s">
-        <v>350</v>
-      </c>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
       <c r="AI39" s="3" t="s">
         <v>57</v>
       </c>
@@ -7946,10 +7998,10 @@
         <v>74</v>
       </c>
       <c r="AP39" s="3" t="s">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="AQ39" s="10" t="s">
-        <v>352</v>
+        <v>86</v>
       </c>
       <c r="AR39" s="3" t="s">
         <v>57</v>
@@ -7973,42 +8025,42 @@
         <v>78</v>
       </c>
       <c r="AY39" s="3" t="s">
-        <v>353</v>
+        <v>87</v>
       </c>
       <c r="AZ39" s="10" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="BA39" s="1">
-        <v>400.0</v>
-      </c>
-      <c r="BB39" s="12" t="s">
-        <v>355</v>
+        <v>201.0</v>
+      </c>
+      <c r="BB39" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="40" ht="21.75" customHeight="1">
+    <row r="40" ht="24.0" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="4">
-        <v>45999.0</v>
+        <v>46012.0</v>
       </c>
       <c r="F40" s="5">
         <v>5.0</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>357</v>
+      <c r="G40" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="H40" s="4">
-        <v>45759.0</v>
+        <v>45768.0</v>
       </c>
       <c r="I40" s="7">
         <v>35.5</v>
@@ -8018,10 +8070,10 @@
         <v>2605.0</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>361</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>60</v>
@@ -8044,20 +8096,34 @@
       <c r="T40" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="AI40" s="3" t="s">
         <v>57</v>
       </c>
@@ -8080,10 +8146,10 @@
         <v>74</v>
       </c>
       <c r="AP40" s="3" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="AQ40" s="10" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="AR40" s="3" t="s">
         <v>57</v>
@@ -8107,42 +8173,42 @@
         <v>78</v>
       </c>
       <c r="AY40" s="3" t="s">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="AZ40" s="10" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="BA40" s="1">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="BB40" s="11" t="s">
-        <v>81</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="4">
-        <v>46012.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F41" s="5">
         <v>5.0</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>361</v>
+      <c r="G41" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="H41" s="4">
-        <v>45768.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I41" s="7">
         <v>35.5</v>
@@ -8152,13 +8218,11 @@
         <v>2605.0</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>363</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>61</v>
@@ -8178,34 +8242,20 @@
       <c r="T41" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF41" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG41" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH41" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
       <c r="AI41" s="3" t="s">
         <v>57</v>
       </c>
@@ -8228,10 +8278,10 @@
         <v>74</v>
       </c>
       <c r="AP41" s="3" t="s">
-        <v>366</v>
+        <v>85</v>
       </c>
       <c r="AQ41" s="10" t="s">
-        <v>367</v>
+        <v>86</v>
       </c>
       <c r="AR41" s="3" t="s">
         <v>57</v>
@@ -8255,42 +8305,42 @@
         <v>78</v>
       </c>
       <c r="AY41" s="3" t="s">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="AZ41" s="10" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="BA41" s="1">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="BB41" s="11" t="s">
-        <v>370</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="42" ht="24.0" customHeight="1">
+    <row r="42">
       <c r="A42" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>373</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="4">
-        <v>45999.0</v>
+        <v>46013.0</v>
       </c>
       <c r="F42" s="5">
         <v>5.0</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>372</v>
+      <c r="G42" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="H42" s="4">
-        <v>45759.0</v>
+        <v>45769.0</v>
       </c>
       <c r="I42" s="7">
         <v>35.5</v>
@@ -8300,11 +8350,11 @@
         <v>2605.0</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>61</v>
@@ -8324,20 +8374,48 @@
       <c r="T42" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
+      <c r="U42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>378</v>
+      </c>
       <c r="AI42" s="3" t="s">
         <v>57</v>
       </c>
@@ -8360,10 +8438,10 @@
         <v>74</v>
       </c>
       <c r="AP42" s="3" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
       <c r="AQ42" s="10" t="s">
-        <v>86</v>
+        <v>380</v>
       </c>
       <c r="AR42" s="3" t="s">
         <v>57</v>
@@ -8387,42 +8465,42 @@
         <v>78</v>
       </c>
       <c r="AY42" s="3" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="AZ42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA42" s="1">
-        <v>201.0</v>
+        <v>382</v>
+      </c>
+      <c r="BA42" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB42" s="11" t="s">
-        <v>81</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="4">
-        <v>46013.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F43" s="5">
         <v>5.0</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>376</v>
+      <c r="G43" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="H43" s="4">
-        <v>45769.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I43" s="7">
         <v>35.5</v>
@@ -8432,17 +8510,17 @@
         <v>2605.0</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>377</v>
+        <v>84</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>378</v>
+        <v>60</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="Q43" s="5">
         <v>9.87654321E8</v>
@@ -8456,48 +8534,20 @@
       <c r="T43" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF43" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG43" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH43" s="3" t="s">
-        <v>380</v>
-      </c>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
       <c r="AI43" s="3" t="s">
         <v>57</v>
       </c>
@@ -8520,10 +8570,10 @@
         <v>74</v>
       </c>
       <c r="AP43" s="3" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="AQ43" s="10" t="s">
-        <v>382</v>
+        <v>86</v>
       </c>
       <c r="AR43" s="3" t="s">
         <v>57</v>
@@ -8547,42 +8597,42 @@
         <v>78</v>
       </c>
       <c r="AY43" s="3" t="s">
-        <v>383</v>
+        <v>87</v>
       </c>
       <c r="AZ43" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="BA43" s="10">
-        <v>400.0</v>
+        <v>88</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB43" s="11" t="s">
-        <v>385</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="4">
-        <v>45999.0</v>
+        <v>46014.0</v>
       </c>
       <c r="F44" s="5">
         <v>5.0</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>387</v>
+      <c r="G44" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="H44" s="4">
-        <v>45759.0</v>
+        <v>45770.0</v>
       </c>
       <c r="I44" s="7">
         <v>35.5</v>
@@ -8592,7 +8642,7 @@
         <v>2605.0</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>84</v>
+        <v>390</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
@@ -8602,7 +8652,7 @@
         <v>61</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q44" s="5">
         <v>9.87654321E8</v>
@@ -8616,20 +8666,48 @@
       <c r="T44" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
+      <c r="U44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="AI44" s="3" t="s">
         <v>57</v>
       </c>
@@ -8652,10 +8730,10 @@
         <v>74</v>
       </c>
       <c r="AP44" s="3" t="s">
-        <v>85</v>
+        <v>394</v>
       </c>
       <c r="AQ44" s="10" t="s">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="AR44" s="3" t="s">
         <v>57</v>
@@ -8679,42 +8757,42 @@
         <v>78</v>
       </c>
       <c r="AY44" s="3" t="s">
-        <v>87</v>
+        <v>396</v>
       </c>
       <c r="AZ44" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA44" s="1">
-        <v>201.0</v>
+        <v>397</v>
+      </c>
+      <c r="BA44" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB44" s="11" t="s">
-        <v>81</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>390</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="4">
-        <v>46014.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F45" s="5">
         <v>5.0</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>391</v>
+      <c r="G45" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="H45" s="4">
-        <v>45770.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I45" s="7">
         <v>35.5</v>
@@ -8724,7 +8802,7 @@
         <v>2605.0</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>392</v>
+        <v>84</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
@@ -8734,7 +8812,7 @@
         <v>61</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>393</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="5">
         <v>9.87654321E8</v>
@@ -8748,48 +8826,22 @@
       <c r="T45" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF45" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG45" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH45" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
       <c r="AI45" s="3" t="s">
         <v>57</v>
       </c>
@@ -8812,10 +8864,10 @@
         <v>74</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>396</v>
+        <v>85</v>
       </c>
       <c r="AQ45" s="10" t="s">
-        <v>397</v>
+        <v>86</v>
       </c>
       <c r="AR45" s="3" t="s">
         <v>57</v>
@@ -8839,42 +8891,42 @@
         <v>78</v>
       </c>
       <c r="AY45" s="3" t="s">
-        <v>398</v>
+        <v>87</v>
       </c>
       <c r="AZ45" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="BA45" s="10">
-        <v>400.0</v>
+        <v>88</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB45" s="11" t="s">
-        <v>400</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="4">
-        <v>45999.0</v>
+        <v>46015.0</v>
       </c>
       <c r="F46" s="5">
         <v>5.0</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>402</v>
+      <c r="G46" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="H46" s="4">
-        <v>45759.0</v>
+        <v>45771.0</v>
       </c>
       <c r="I46" s="7">
         <v>35.5</v>
@@ -8884,7 +8936,7 @@
         <v>2605.0</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
@@ -8899,8 +8951,8 @@
       <c r="Q46" s="5">
         <v>9.87654321E8</v>
       </c>
-      <c r="R46" s="5">
-        <v>1502.0</v>
+      <c r="R46" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="S46" s="5">
         <v>15067.0</v>
@@ -8908,22 +8960,48 @@
       <c r="T46" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="AI46" s="3" t="s">
         <v>57</v>
       </c>
@@ -8946,10 +9024,10 @@
         <v>74</v>
       </c>
       <c r="AP46" s="3" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>86</v>
+        <v>410</v>
       </c>
       <c r="AR46" s="3" t="s">
         <v>57</v>
@@ -8973,42 +9051,42 @@
         <v>78</v>
       </c>
       <c r="AY46" s="3" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="AZ46" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA46" s="1">
-        <v>201.0</v>
+        <v>412</v>
+      </c>
+      <c r="BA46" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB46" s="11" t="s">
-        <v>81</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>405</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4">
-        <v>46015.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F47" s="5">
         <v>5.0</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>406</v>
+      <c r="G47" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="H47" s="4">
-        <v>45771.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I47" s="7">
         <v>35.5</v>
@@ -9018,7 +9096,7 @@
         <v>2605.0</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>407</v>
+        <v>84</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
@@ -9033,8 +9111,8 @@
       <c r="Q47" s="5">
         <v>9.87654321E8</v>
       </c>
-      <c r="R47" s="5" t="s">
-        <v>408</v>
+      <c r="R47" s="5">
+        <v>1502.0</v>
       </c>
       <c r="S47" s="5">
         <v>15067.0</v>
@@ -9042,48 +9120,20 @@
       <c r="T47" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE47" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF47" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG47" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH47" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
       <c r="AI47" s="3" t="s">
         <v>57</v>
       </c>
@@ -9091,7 +9141,7 @@
         <v>1.0</v>
       </c>
       <c r="AK47" s="3" t="s">
-        <v>73</v>
+        <v>416</v>
       </c>
       <c r="AL47" s="7">
         <v>180.0</v>
@@ -9106,10 +9156,10 @@
         <v>74</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>411</v>
+        <v>85</v>
       </c>
       <c r="AQ47" s="10" t="s">
-        <v>412</v>
+        <v>86</v>
       </c>
       <c r="AR47" s="3" t="s">
         <v>57</v>
@@ -9133,42 +9183,42 @@
         <v>78</v>
       </c>
       <c r="AY47" s="3" t="s">
-        <v>413</v>
+        <v>87</v>
       </c>
       <c r="AZ47" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="BA47" s="10">
-        <v>400.0</v>
+        <v>88</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB47" s="11" t="s">
-        <v>415</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>418</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="4">
-        <v>45999.0</v>
+        <v>46016.0</v>
       </c>
       <c r="F48" s="5">
         <v>5.0</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>417</v>
+      <c r="G48" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="H48" s="4">
-        <v>45759.0</v>
+        <v>45772.0</v>
       </c>
       <c r="I48" s="7">
         <v>35.5</v>
@@ -9178,7 +9228,7 @@
         <v>2605.0</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="s">
@@ -9202,20 +9252,48 @@
       <c r="T48" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
+      <c r="U48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X48" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="AI48" s="3" t="s">
         <v>57</v>
       </c>
@@ -9223,7 +9301,7 @@
         <v>1.0</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AL48" s="7">
         <v>180.0</v>
@@ -9238,10 +9316,10 @@
         <v>74</v>
       </c>
       <c r="AP48" s="3" t="s">
-        <v>85</v>
+        <v>424</v>
       </c>
       <c r="AQ48" s="10" t="s">
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="AR48" s="3" t="s">
         <v>57</v>
@@ -9265,42 +9343,42 @@
         <v>78</v>
       </c>
       <c r="AY48" s="3" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="AZ48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA48" s="1">
-        <v>201.0</v>
+        <v>427</v>
+      </c>
+      <c r="BA48" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB48" s="11" t="s">
-        <v>81</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>420</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E49" s="4">
-        <v>46016.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F49" s="5">
         <v>5.0</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>421</v>
+      <c r="G49" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="H49" s="4">
-        <v>45772.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I49" s="7">
         <v>35.5</v>
@@ -9310,7 +9388,7 @@
         <v>2605.0</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>422</v>
+        <v>84</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
@@ -9334,48 +9412,20 @@
       <c r="T49" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE49" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF49" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG49" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH49" s="3" t="s">
-        <v>424</v>
-      </c>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
       <c r="AI49" s="3" t="s">
         <v>57</v>
       </c>
@@ -9383,7 +9433,7 @@
         <v>1.0</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>425</v>
+        <v>73</v>
       </c>
       <c r="AL49" s="7">
         <v>180.0</v>
@@ -9395,13 +9445,13 @@
         <v>620.0</v>
       </c>
       <c r="AO49" s="3" t="s">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="AP49" s="3" t="s">
-        <v>426</v>
+        <v>85</v>
       </c>
       <c r="AQ49" s="10" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
       <c r="AR49" s="3" t="s">
         <v>57</v>
@@ -9425,42 +9475,42 @@
         <v>78</v>
       </c>
       <c r="AY49" s="3" t="s">
-        <v>428</v>
+        <v>87</v>
       </c>
       <c r="AZ49" s="10" t="s">
-        <v>429</v>
+        <v>88</v>
       </c>
       <c r="BA49" s="10">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="BB49" s="11" t="s">
-        <v>430</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>56</v>
+        <v>433</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E50" s="4">
-        <v>45999.0</v>
+        <v>46017.0</v>
       </c>
       <c r="F50" s="5">
         <v>5.0</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>432</v>
+      <c r="G50" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="H50" s="4">
-        <v>45759.0</v>
+        <v>45773.0</v>
       </c>
       <c r="I50" s="7">
         <v>35.5</v>
@@ -9470,7 +9520,7 @@
         <v>2605.0</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>84</v>
+        <v>435</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
@@ -9494,20 +9544,48 @@
       <c r="T50" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
+      <c r="U50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="AI50" s="3" t="s">
         <v>57</v>
       </c>
@@ -9527,13 +9605,13 @@
         <v>620.0</v>
       </c>
       <c r="AO50" s="3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AP50" s="3" t="s">
-        <v>85</v>
+        <v>439</v>
       </c>
       <c r="AQ50" s="10" t="s">
-        <v>86</v>
+        <v>440</v>
       </c>
       <c r="AR50" s="3" t="s">
         <v>57</v>
@@ -9557,42 +9635,42 @@
         <v>78</v>
       </c>
       <c r="AY50" s="3" t="s">
-        <v>87</v>
+        <v>441</v>
       </c>
       <c r="AZ50" s="10" t="s">
-        <v>88</v>
+        <v>442</v>
       </c>
       <c r="BA50" s="10">
-        <v>201.0</v>
+        <v>400.0</v>
       </c>
       <c r="BB50" s="11" t="s">
-        <v>81</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>435</v>
+        <v>56</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="4">
-        <v>46017.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F51" s="5">
         <v>5.0</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>436</v>
+      <c r="G51" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="H51" s="4">
-        <v>45773.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I51" s="7">
         <v>35.5</v>
@@ -9602,7 +9680,7 @@
         <v>2605.0</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
@@ -9626,48 +9704,20 @@
       <c r="T51" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X51" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA51" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE51" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF51" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="AG51" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH51" s="3" t="s">
-        <v>439</v>
-      </c>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
       <c r="AI51" s="3" t="s">
         <v>57</v>
       </c>
@@ -9687,13 +9737,13 @@
         <v>620.0</v>
       </c>
       <c r="AO51" s="3" t="s">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="AP51" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AQ51" s="10" t="s">
-        <v>442</v>
+        <v>86</v>
       </c>
       <c r="AR51" s="3" t="s">
         <v>57</v>
@@ -9717,42 +9767,42 @@
         <v>78</v>
       </c>
       <c r="AY51" s="3" t="s">
-        <v>443</v>
+        <v>87</v>
       </c>
       <c r="AZ51" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="BA51" s="10">
-        <v>400.0</v>
+        <v>88</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB51" s="11" t="s">
-        <v>445</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>448</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E52" s="4">
-        <v>45999.0</v>
+        <v>46018.0</v>
       </c>
       <c r="F52" s="5">
         <v>5.0</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>447</v>
+      <c r="G52" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="H52" s="4">
-        <v>45759.0</v>
+        <v>45774.0</v>
       </c>
       <c r="I52" s="7">
         <v>35.5</v>
@@ -9762,7 +9812,7 @@
         <v>2605.0</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>84</v>
+        <v>450</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
@@ -9786,20 +9836,48 @@
       <c r="T52" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
+      <c r="U52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X52" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="AI52" s="3" t="s">
         <v>57</v>
       </c>
@@ -9822,10 +9900,10 @@
         <v>74</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AQ52" s="10" t="s">
-        <v>86</v>
+        <v>454</v>
       </c>
       <c r="AR52" s="3" t="s">
         <v>57</v>
@@ -9849,42 +9927,42 @@
         <v>78</v>
       </c>
       <c r="AY52" s="3" t="s">
-        <v>87</v>
+        <v>455</v>
       </c>
       <c r="AZ52" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA52" s="1">
-        <v>201.0</v>
+        <v>456</v>
+      </c>
+      <c r="BA52" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB52" s="11" t="s">
-        <v>81</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>450</v>
+        <v>56</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E53" s="4">
-        <v>46018.0</v>
+        <v>45999.0</v>
       </c>
       <c r="F53" s="5">
         <v>5.0</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>451</v>
+      <c r="G53" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="H53" s="4">
-        <v>45774.0</v>
+        <v>45759.0</v>
       </c>
       <c r="I53" s="7">
         <v>35.5</v>
@@ -9894,7 +9972,7 @@
         <v>2605.0</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>452</v>
+        <v>84</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="s">
@@ -9918,48 +9996,20 @@
       <c r="T53" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U53" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X53" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y53" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE53" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF53" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AG53" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH53" s="3" t="s">
-        <v>454</v>
-      </c>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
       <c r="AI53" s="3" t="s">
         <v>57</v>
       </c>
@@ -9982,10 +10032,10 @@
         <v>74</v>
       </c>
       <c r="AP53" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AQ53" s="10" t="s">
-        <v>456</v>
+        <v>85</v>
+      </c>
+      <c r="AQ53" s="17" t="s">
+        <v>460</v>
       </c>
       <c r="AR53" s="3" t="s">
         <v>57</v>
@@ -10009,42 +10059,42 @@
         <v>78</v>
       </c>
       <c r="AY53" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AZ53" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="BA53" s="10">
-        <v>400.0</v>
+        <v>87</v>
+      </c>
+      <c r="AZ53" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA53" s="1">
+        <v>201.0</v>
       </c>
       <c r="BB53" s="11" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="4">
-        <v>45999.0</v>
+        <v>46019.0</v>
       </c>
       <c r="F54" s="5">
         <v>5.0</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>461</v>
+      <c r="G54" s="10" t="s">
+        <v>463</v>
       </c>
       <c r="H54" s="4">
-        <v>45759.0</v>
+        <v>45775.0</v>
       </c>
       <c r="I54" s="7">
         <v>35.5</v>
@@ -10054,7 +10104,7 @@
         <v>2605.0</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>84</v>
+        <v>464</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="s">
@@ -10078,20 +10128,48 @@
       <c r="T54" s="5">
         <v>4.4556678E7</v>
       </c>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
+      <c r="U54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X54" s="3">
+        <v>1.36E10</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>518054.0</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>1.3988887777E10</v>
+      </c>
+      <c r="AF54" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>100101.0</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="AI54" s="3" t="s">
         <v>57</v>
       </c>
@@ -10114,10 +10192,10 @@
         <v>74</v>
       </c>
       <c r="AP54" s="3" t="s">
-        <v>85</v>
+        <v>467</v>
       </c>
       <c r="AQ54" s="17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AR54" s="3" t="s">
         <v>57</v>
@@ -10141,499 +10219,339 @@
         <v>78</v>
       </c>
       <c r="AY54" s="3" t="s">
-        <v>87</v>
+        <v>469</v>
       </c>
       <c r="AZ54" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA54" s="1">
-        <v>201.0</v>
+        <v>470</v>
+      </c>
+      <c r="BA54" s="10">
+        <v>400.0</v>
       </c>
       <c r="BB54" s="11" t="s">
-        <v>81</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="4">
-        <v>46019.0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>5.0</v>
+        <v>475</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="H55" s="4">
-        <v>45775.0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>35.5</v>
-      </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="5">
-        <v>2605.0</v>
+        <v>478</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M55" s="3"/>
+        <v>482</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="N55" s="3" t="s">
-        <v>60</v>
+        <v>483</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>61</v>
+        <v>484</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="R55" s="5">
-        <v>1502.0</v>
-      </c>
-      <c r="S55" s="5">
-        <v>15067.0</v>
-      </c>
-      <c r="T55" s="5">
-        <v>4.4556678E7</v>
+        <v>485</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>64</v>
+        <v>491</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X55" s="3">
-        <v>1.36E10</v>
+        <v>492</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z55" s="3">
-        <v>518054.0</v>
+        <v>494</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="AA55" s="3" t="s">
-        <v>152</v>
+        <v>496</v>
       </c>
       <c r="AB55" s="3" t="s">
-        <v>68</v>
+        <v>497</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>69</v>
+        <v>498</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE55" s="3">
-        <v>1.3988887777E10</v>
+        <v>499</v>
+      </c>
+      <c r="AE55" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="AF55" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="AG55" s="3">
-        <v>100101.0</v>
+        <v>501</v>
+      </c>
+      <c r="AG55" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="AH55" s="3" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="AI55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ55" s="5">
-        <v>1.0</v>
+        <v>504</v>
+      </c>
+      <c r="AJ55" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="AK55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL55" s="7">
-        <v>180.0</v>
-      </c>
-      <c r="AM55" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="AN55" s="7">
-        <v>620.0</v>
+        <v>506</v>
+      </c>
+      <c r="AL55" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM55" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AN55" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="AO55" s="3" t="s">
-        <v>74</v>
+        <v>510</v>
       </c>
       <c r="AP55" s="3" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="AQ55" s="17" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS55" s="5">
-        <v>2.0</v>
+        <v>504</v>
+      </c>
+      <c r="AS55" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="AT55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU55" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="AV55" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AW55" s="7">
-        <v>300.0</v>
+        <v>514</v>
+      </c>
+      <c r="AU55" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="AV55" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="AW55" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="AX55" s="3" t="s">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="AY55" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="AZ55" s="17" t="s">
-        <v>472</v>
+        <v>517</v>
+      </c>
+      <c r="AZ55" s="10" t="s">
+        <v>518</v>
       </c>
       <c r="BA55" s="10">
         <v>400.0</v>
       </c>
       <c r="BB55" s="11" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>475</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>479</v>
+        <v>57</v>
+      </c>
+      <c r="E56" s="4">
+        <v>46020.0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>5.0</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>483</v>
+        <v>522</v>
+      </c>
+      <c r="H56" s="4">
+        <v>45776.0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="5">
+        <v>2605.0</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>482</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M56" s="3"/>
       <c r="N56" s="3" t="s">
-        <v>485</v>
+        <v>60</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>486</v>
+        <v>61</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="T56" s="5" t="s">
-        <v>491</v>
+        <v>62</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="R56" s="5">
+        <v>1502.0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>15067.0</v>
+      </c>
+      <c r="T56" s="5">
+        <v>4.4556678E7</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>492</v>
+        <v>167</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>493</v>
+        <v>64</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="X56" s="3" t="s">
-        <v>495</v>
+        <v>65</v>
+      </c>
+      <c r="X56" s="3">
+        <v>1.36E10</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>497</v>
+        <v>168</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>518054.0</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>498</v>
+        <v>169</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>499</v>
+        <v>68</v>
       </c>
       <c r="AC56" s="3" t="s">
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>502</v>
+        <v>70</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>1.3988887777E10</v>
       </c>
       <c r="AF56" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="AG56" s="3" t="s">
-        <v>504</v>
+        <v>524</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>100101.0</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="AI56" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="AJ56" s="5" t="s">
-        <v>507</v>
+        <v>57</v>
+      </c>
+      <c r="AJ56" s="5">
+        <v>1.0</v>
       </c>
       <c r="AK56" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AL56" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="AM56" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AN56" s="7" t="s">
-        <v>511</v>
+        <v>73</v>
+      </c>
+      <c r="AL56" s="7">
+        <v>180.0</v>
+      </c>
+      <c r="AM56" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="AN56" s="7">
+        <v>620.0</v>
       </c>
       <c r="AO56" s="3" t="s">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="AP56" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AQ56" s="17" t="s">
-        <v>514</v>
+        <v>526</v>
+      </c>
+      <c r="AQ56" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="AS56" s="5" t="s">
-        <v>515</v>
+        <v>57</v>
+      </c>
+      <c r="AS56" s="5">
+        <v>2.0</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="AU56" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="AV56" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="AW56" s="7" t="s">
-        <v>482</v>
+        <v>77</v>
+      </c>
+      <c r="AU56" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="AV56" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AW56" s="7">
+        <v>300.0</v>
       </c>
       <c r="AX56" s="3" t="s">
-        <v>518</v>
+        <v>78</v>
       </c>
       <c r="AY56" s="3" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AZ56" s="10" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="BA56" s="10">
-        <v>400.0</v>
+        <v>201.0</v>
       </c>
       <c r="BB56" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="4">
-        <v>46020.0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="H57" s="4">
-        <v>45776.0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>35.5</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="5">
-        <v>2605.0</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q57" s="5">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="R57" s="5">
-        <v>1502.0</v>
-      </c>
-      <c r="S57" s="5">
-        <v>15067.0</v>
-      </c>
-      <c r="T57" s="5">
-        <v>4.4556678E7</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1.36E10</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>518054.0</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE57" s="3">
-        <v>1.3988887777E10</v>
-      </c>
-      <c r="AF57" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG57" s="3">
-        <v>100101.0</v>
-      </c>
-      <c r="AH57" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AI57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ57" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AK57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL57" s="7">
-        <v>180.0</v>
-      </c>
-      <c r="AM57" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="AN57" s="7">
-        <v>620.0</v>
-      </c>
-      <c r="AO57" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP57" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AQ57" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AR57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS57" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="AT57" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU57" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="AV57" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="AW57" s="7">
-        <v>300.0</v>
-      </c>
-      <c r="AX57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY57" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AZ57" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="BA57" s="10">
-        <v>201.0</v>
-      </c>
-      <c r="BB57" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10701,26 +10619,27 @@
     <hyperlink r:id="rId60" ref="AQ24"/>
     <hyperlink r:id="rId61" ref="AZ24"/>
     <hyperlink r:id="rId62" ref="G25"/>
-    <hyperlink r:id="rId63" ref="G26"/>
+    <hyperlink r:id="rId63" ref="G32"/>
     <hyperlink r:id="rId64" ref="G33"/>
     <hyperlink r:id="rId65" ref="G34"/>
     <hyperlink r:id="rId66" ref="G35"/>
-    <hyperlink r:id="rId67" ref="G36"/>
-    <hyperlink r:id="rId68" ref="G38"/>
-    <hyperlink r:id="rId69" ref="G40"/>
-    <hyperlink r:id="rId70" ref="G42"/>
-    <hyperlink r:id="rId71" ref="G44"/>
-    <hyperlink r:id="rId72" ref="G46"/>
-    <hyperlink r:id="rId73" ref="G48"/>
-    <hyperlink r:id="rId74" ref="G50"/>
-    <hyperlink r:id="rId75" ref="G52"/>
-    <hyperlink r:id="rId76" ref="G54"/>
-    <hyperlink r:id="rId77" ref="AQ54"/>
-    <hyperlink r:id="rId78" ref="AZ54"/>
-    <hyperlink r:id="rId79" ref="AQ55"/>
-    <hyperlink r:id="rId80" ref="AZ55"/>
-    <hyperlink r:id="rId81" ref="AQ56"/>
+    <hyperlink r:id="rId67" ref="AQ35"/>
+    <hyperlink r:id="rId68" ref="AZ35"/>
+    <hyperlink r:id="rId69" ref="G37"/>
+    <hyperlink r:id="rId70" ref="G39"/>
+    <hyperlink r:id="rId71" ref="G41"/>
+    <hyperlink r:id="rId72" ref="G43"/>
+    <hyperlink r:id="rId73" ref="G45"/>
+    <hyperlink r:id="rId74" ref="G47"/>
+    <hyperlink r:id="rId75" ref="G49"/>
+    <hyperlink r:id="rId76" ref="G51"/>
+    <hyperlink r:id="rId77" ref="G53"/>
+    <hyperlink r:id="rId78" ref="AQ53"/>
+    <hyperlink r:id="rId79" ref="AZ53"/>
+    <hyperlink r:id="rId80" ref="AQ54"/>
+    <hyperlink r:id="rId81" ref="AZ54"/>
+    <hyperlink r:id="rId82" ref="AQ55"/>
   </hyperlinks>
-  <drawing r:id="rId82"/>
+  <drawing r:id="rId83"/>
 </worksheet>
 </file>
--- a/src/testData/archivosExcel/ParcelDeclareRequest_v2.xlsx
+++ b/src/testData/archivosExcel/ParcelDeclareRequest_v2.xlsx
@@ -1015,7 +1015,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.address","message":"No debe estar vacío"},{"field":"receiverInfo.email","message":"must not be blank"},{"field":"receiverInfo.fullName","message":"must not be blank"},{"field":"receiverInfo.identityNumber","message":"must not be blank"},{"field":"receiverInfo.idUbigeo","message":"must not be blank"},{"field":"receiverInfo.mobilePhone","message":"must not be blank"}]</t>
+    <t>[{"field":"receiverInfo.address","message":"address: No debe estar vacío"},{"field":"receiverInfo.email","message":"email: no puede estar en blanco"},{"field":"receiverInfo.fullName","message":"fullName: no puede estar en blanco"},{"field":"receiverInfo.identityNumber","message":"identityNumber: no puede estar en blanco"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo: no puede estar en blanco"},{"field":"receiverInfo.mobilePhone","message":"mobilePhone: no puede estar en blanco"}]</t>
   </si>
   <si>
     <t>P19</t>
@@ -1031,7 +1031,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field": "receiverInfo.fullName","message": "must not be blank"}]</t>
+    <t>[{"field":"receiverInfo.fullName","message":"fullName: no puede estar en blanco"}]</t>
   </si>
   <si>
     <t>P20</t>
@@ -1082,7 +1082,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.email","message":"size must be between 0 and 64"},{"field":"receiverInfo.email","message":"must be a well-formed email address"}]</t>
+    <t>[{"field":"receiverInfo.email","message":"email: Debe ser un email con formato válido"},{"field":"receiverInfo.email","message":"email: máximo 64 caracteres"}]</t>
   </si>
   <si>
     <t>P21</t>
@@ -1133,7 +1133,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.mobilePhone","message":"size must be between 0 and 16"}]</t>
+    <t>[{"field":"receiverInfo.mobilePhone","message":"mobilePhone: máximo 16 caracteres"}]</t>
   </si>
   <si>
     <t>P22</t>
@@ -1175,7 +1175,7 @@
     </r>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.identityNumber","message":"size must be between 0 and 32"}]</t>
+    <t>[{"field":"receiverInfo.identityNumber","message":"identityNumber: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>P23</t>
@@ -1520,7 +1520,7 @@
     <t>https://shop.example.cn/item/ANK-20008</t>
   </si>
   <si>
-    <t>[{"field":"ctnNumber","message":"size must be between 0 and 32"}]</t>
+    <t>[{"field":"ctnNumber","message":"ctnNumber: máximo 32 caracteres"}]</t>
   </si>
   <si>
     <t>P38</t>
@@ -1572,7 +1572,7 @@
     <t>https://shop.example.cn/item/ANK-20009</t>
   </si>
   <si>
-    <t>[{"field":"insurance","message":"size must be between 0 and 16"}]</t>
+    <t>[{"field":"insurance","message":"insurance: máximo 16 caracteres"}]</t>
   </si>
   <si>
     <t>P40</t>
@@ -1624,7 +1624,7 @@
     <t>https://shop.example.cn/item/ANK-20010</t>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.address","message":"size must be between 0 and 200"}]</t>
+    <t>[{"field":"receiverInfo.address","message":"address: máximo 200 caracteres"}]</t>
   </si>
   <si>
     <t>P42</t>
@@ -1676,7 +1676,7 @@
     <t>https://shop.example.cn/item/ANK-20011</t>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.fullName","message":"size must be between 0 and 100"}]</t>
+    <t>[{"field":"receiverInfo.fullName","message":"fullName: máximo 100 caracteres"}]</t>
   </si>
   <si>
     <t>P44</t>
@@ -1728,7 +1728,7 @@
     <t>https://shop.example.cn/item/ANK-20012</t>
   </si>
   <si>
-    <t>[{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"}]</t>
+    <t>[{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo: máximo 4 caracteres"}]</t>
   </si>
   <si>
     <t>P46</t>
@@ -2075,7 +2075,7 @@
     <t>https://shop.&amp;&amp;&amp;&amp;example.cn/item/ANK-20016</t>
   </si>
   <si>
-    <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[0].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"packageCount","message":"packageCount inválido (solo dígitos)"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"shipping","message":"shipping inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"receiverInfo.idUbigeo","message":"size must be between 0 and 4"},{"field":"valueAddedTax","message":"valueAddedTax inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
+    <t>[{"field":"countryManufacture","message":"countryManufacture debe ser ISO-2"},{"field":"currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"grossWeight","message":"grossWeight inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[0].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[0].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[0].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[0].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[0].productUrl","message":"productUrl: máximo 256 caracteres"},{"field":"itemList[0].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].currency","message":"currency debe ser ISO-4217 (3-4 letras)"},{"field":"itemList[1].currency","message":"currency: máximo 4 caracteres"},{"field":"itemList[1].grossWeight","message":"grossWeight inválido (ej. 12.345)"},{"field":"itemList[1].itemSequenceNumber","message":"itemSequenceNumber debe ser un entero positivo de hasta 3 dígitos"},{"field":"itemList[1].price","message":"price inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"itemList[1].qty","message":"qty debe ser un entero positivo de hasta 3 dígitos"},{"field":"packageCount","message":"packageCount inválido (solo dígitos)"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo debe contener enteros entre 1 y 9999 sin ceros a la izquierda"},{"field":"receiverInfo.idUbigeo","message":"idUbigeo: máximo 4 caracteres"},{"field":"shipping","message":"shipping inválido (máx 5 enteros y 3 decimales, separador '.')"},{"field":"valueAddedTax","message":"valueAddedTax inválido (máx 5 enteros y 3 decimales, separador '.')"}]</t>
   </si>
   <si>
     <t>P55</t>
